--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BA588C-883C-4B1B-A9FE-ED0ECB36AD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1016C1F-9EAC-44FE-A840-D8D548040C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FashionProto" sheetId="1" r:id="rId1"/>
@@ -81,6 +81,7 @@
 1001  头饰
 1002  脸
 1003  眼睛
+1004  眉毛
 2001  披风
 2002  上衣
 3001  下衣
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -183,24 +184,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>战士头饰1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士头饰2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero_toufa</t>
-  </si>
-  <si>
-    <t>战士眼睛1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero_yanjing</t>
-  </si>
-  <si>
     <t>int[]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -209,14 +192,71 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>法师下衣1</t>
+    <t>1;3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Hero_xiashen</t>
+    <t>Hero_lian_lvmu</t>
   </si>
   <si>
-    <t>1;3</t>
+    <t>Hero_shangyi_lvmu</t>
+  </si>
+  <si>
+    <t>Hero_meimao_lvmu</t>
+  </si>
+  <si>
+    <t>Hero_pifeng_lvmu</t>
+  </si>
+  <si>
+    <t>Hero_toufa_lvmu</t>
+  </si>
+  <si>
+    <t>Hero_xiashen_lvmu</t>
+  </si>
+  <si>
+    <t>Hero_xiezi_lvmu</t>
+  </si>
+  <si>
+    <t>Hero_yanjing_lvmu</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布.脸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布.眉毛</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布.披风</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布.上衣</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布.头发</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布.下身</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布.鞋子</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布.眼睛</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_lian_sima</t>
+  </si>
+  <si>
+    <t>司马.脸</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4976,7 +5016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4999,6 +5039,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1514">
@@ -6843,11 +6886,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:K466"/>
+  <dimension ref="C1:K471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6947,10 +6990,10 @@
         <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6964,13 +7007,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="6">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>19</v>
@@ -6989,13 +7032,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>20</v>
@@ -7011,104 +7054,174 @@
         <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>1003</v>
+        <v>2001</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
+      <c r="G8" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="7">
+      <c r="C9" s="5">
+        <v>10010004</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2002</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="5">
+        <v>10010005</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1001</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="7">
+        <v>10010006</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3001</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="5">
+        <v>10010007</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9">
+        <v>3002</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="5">
+        <v>10010008</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1003</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="7">
         <v>20010001</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="7">
-        <v>3</v>
+      <c r="E14" s="7">
+        <v>1</v>
       </c>
-      <c r="F9" s="7">
-        <v>3001</v>
+      <c r="F14" s="7">
+        <v>1002</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
+      <c r="G14" s="7" t="s">
+        <v>43</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>31</v>
+      <c r="H14" s="7" t="s">
+        <v>42</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>32</v>
+      <c r="I14" s="6" t="s">
+        <v>25</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -7119,7 +7232,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -7130,7 +7243,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -7295,7 +7408,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -7306,7 +7419,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -7317,7 +7430,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -7328,7 +7441,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -7339,7 +7452,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -12080,6 +12193,61 @@
       <c r="J466" s="7"/>
       <c r="K466" s="7"/>
     </row>
+    <row r="467" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C467" s="7"/>
+      <c r="D467" s="7"/>
+      <c r="E467" s="7"/>
+      <c r="F467" s="7"/>
+      <c r="G467" s="7"/>
+      <c r="H467" s="7"/>
+      <c r="I467" s="7"/>
+      <c r="J467" s="7"/>
+      <c r="K467" s="7"/>
+    </row>
+    <row r="468" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C468" s="7"/>
+      <c r="D468" s="7"/>
+      <c r="E468" s="7"/>
+      <c r="F468" s="7"/>
+      <c r="G468" s="7"/>
+      <c r="H468" s="7"/>
+      <c r="I468" s="7"/>
+      <c r="J468" s="7"/>
+      <c r="K468" s="7"/>
+    </row>
+    <row r="469" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C469" s="7"/>
+      <c r="D469" s="7"/>
+      <c r="E469" s="7"/>
+      <c r="F469" s="7"/>
+      <c r="G469" s="7"/>
+      <c r="H469" s="7"/>
+      <c r="I469" s="7"/>
+      <c r="J469" s="7"/>
+      <c r="K469" s="7"/>
+    </row>
+    <row r="470" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C470" s="7"/>
+      <c r="D470" s="7"/>
+      <c r="E470" s="7"/>
+      <c r="F470" s="7"/>
+      <c r="G470" s="7"/>
+      <c r="H470" s="7"/>
+      <c r="I470" s="7"/>
+      <c r="J470" s="7"/>
+      <c r="K470" s="7"/>
+    </row>
+    <row r="471" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C471" s="7"/>
+      <c r="D471" s="7"/>
+      <c r="E471" s="7"/>
+      <c r="F471" s="7"/>
+      <c r="G471" s="7"/>
+      <c r="H471" s="7"/>
+      <c r="I471" s="7"/>
+      <c r="J471" s="7"/>
+      <c r="K471" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1016C1F-9EAC-44FE-A840-D8D548040C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55BEBF7-454A-4936-A8EB-FF2A5CB6D5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -257,6 +257,10 @@
   </si>
   <si>
     <t>司马.脸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX.脸</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -5040,7 +5044,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6886,11 +6890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:K471"/>
+  <dimension ref="C1:K472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7196,39 +7200,53 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="7">
+        <v>10010009</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1002</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="7">
         <v>20010001</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="7">
         <v>1002</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
@@ -7254,7 +7272,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -7463,7 +7481,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -12248,6 +12266,17 @@
       <c r="J471" s="7"/>
       <c r="K471" s="7"/>
     </row>
+    <row r="472" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C472" s="7"/>
+      <c r="D472" s="7"/>
+      <c r="E472" s="7"/>
+      <c r="F472" s="7"/>
+      <c r="G472" s="7"/>
+      <c r="H472" s="7"/>
+      <c r="I472" s="7"/>
+      <c r="J472" s="7"/>
+      <c r="K472" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55BEBF7-454A-4936-A8EB-FF2A5CB6D5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E187D4-50D3-4AC2-B88F-0FA6BE0F0A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FashionProto" sheetId="1" r:id="rId1"/>
@@ -6894,7 +6894,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E187D4-50D3-4AC2-B88F-0FA6BE0F0A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84863D1F-7BD6-4F15-A09D-C0AD4995B6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FashionProto" sheetId="1" r:id="rId1"/>
@@ -6894,7 +6894,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6976,7 +6976,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84863D1F-7BD6-4F15-A09D-C0AD4995B6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44A4DA8-662B-4116-A64C-1451D7A12AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29625" yWindow="285" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FashionProto" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="E3" authorId="0" shapeId="0" xr:uid="{F49D710C-2319-4E38-A01E-5EF7D1E9BDEB}">
@@ -89,12 +90,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{36159296-E435-4AE0-8ED3-3BD7FBDFA2CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+x,y,z,fieldOfView</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -261,6 +288,26 @@
   </si>
   <si>
     <t>XX.脸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_lian_lvmu</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像机参数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>double[]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,130,175,45</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -6890,11 +6937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:K472"/>
+  <dimension ref="C1:L472"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6:D15"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6906,14 +6953,15 @@
     <col min="7" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="17.875" customWidth="1"/>
     <col min="11" max="11" width="23.75" customWidth="1"/>
+    <col min="12" max="12" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6941,8 +6989,11 @@
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -6970,8 +7021,11 @@
       <c r="K4" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6999,8 +7053,11 @@
       <c r="K5" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5">
         <v>10010001</v>
       </c>
@@ -7017,15 +7074,18 @@
         <v>34</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5">
         <v>10010002</v>
       </c>
@@ -7049,8 +7109,11 @@
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7">
         <v>10010003</v>
       </c>
@@ -7074,8 +7137,11 @@
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5">
         <v>10010004</v>
       </c>
@@ -7099,8 +7165,11 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="5">
         <v>10010005</v>
       </c>
@@ -7124,8 +7193,11 @@
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="7">
         <v>10010006</v>
       </c>
@@ -7149,8 +7221,11 @@
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5">
         <v>10010007</v>
       </c>
@@ -7174,8 +7249,11 @@
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="5">
         <v>10010008</v>
       </c>
@@ -7199,8 +7277,11 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="7">
         <v>10010009</v>
       </c>
@@ -7224,8 +7305,11 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="7">
         <v>20010001</v>
       </c>
@@ -7249,8 +7333,11 @@
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -7260,8 +7347,9 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -7271,8 +7359,9 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="3:11" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -7282,8 +7371,9 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -7293,8 +7383,9 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -7304,8 +7395,9 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -7315,8 +7407,9 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -7326,8 +7419,9 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -7337,8 +7431,9 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -7348,8 +7443,9 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -7359,8 +7455,9 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -7370,8 +7467,9 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -7381,8 +7479,9 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -7392,8 +7491,9 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -7403,8 +7503,9 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -7414,8 +7515,9 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="3:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -7425,8 +7527,9 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="3:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -7436,8 +7539,9 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="3:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -7447,8 +7551,9 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="3:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -7458,8 +7563,9 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="3:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -7469,8 +7575,9 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="3:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -7480,8 +7587,9 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="3:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="3:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -7491,8 +7599,9 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -7502,8 +7611,9 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -7513,8 +7623,9 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -7524,8 +7635,9 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -7535,8 +7647,9 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -7546,8 +7659,9 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -7557,8 +7671,9 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -7568,8 +7683,9 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -7579,8 +7695,9 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -7590,8 +7707,9 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -7601,8 +7719,9 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -7612,8 +7731,9 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -7623,8 +7743,9 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -7634,8 +7755,9 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -7645,8 +7767,9 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -7656,8 +7779,9 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -7667,8 +7791,9 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -7678,8 +7803,9 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -7689,8 +7815,9 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -7700,8 +7827,9 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -7711,8 +7839,9 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -7722,8 +7851,9 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -7733,8 +7863,9 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -7744,8 +7875,9 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -7755,8 +7887,9 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -7766,8 +7899,9 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -7777,8 +7911,9 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -7788,8 +7923,9 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -7799,8 +7935,9 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -7810,8 +7947,9 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -7821,8 +7959,9 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
-    </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -7832,8 +7971,9 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
-    </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -7843,8 +7983,9 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
-    </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -7854,8 +7995,9 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
-    </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -7865,8 +8007,9 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
-    </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -7876,8 +8019,9 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
-    </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -7887,8 +8031,9 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
-    </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -7898,8 +8043,9 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
-    </row>
-    <row r="75" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -7909,8 +8055,9 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
-    </row>
-    <row r="76" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -7920,8 +8067,9 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
-    </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -7931,8 +8079,9 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
-    </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -7942,8 +8091,9 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
-    </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -7953,8 +8103,9 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
-    </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -7964,8 +8115,9 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -7975,8 +8127,9 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -7986,8 +8139,9 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -7997,8 +8151,9 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -8008,8 +8163,9 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -8019,8 +8175,9 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -8030,8 +8187,9 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -8041,8 +8199,9 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -8052,8 +8211,9 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -8063,8 +8223,9 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -8074,8 +8235,9 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -8085,8 +8247,9 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -8096,8 +8259,9 @@
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -8107,8 +8271,9 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -8118,8 +8283,9 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -8129,8 +8295,9 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -8140,8 +8307,9 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -8151,8 +8319,9 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -8162,8 +8331,9 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -8173,8 +8343,9 @@
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -8184,8 +8355,9 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -8195,8 +8367,9 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -8206,8 +8379,9 @@
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
-    </row>
-    <row r="103" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -8217,8 +8391,9 @@
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
-    </row>
-    <row r="104" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -8228,8 +8403,9 @@
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
-    </row>
-    <row r="105" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -8239,8 +8415,9 @@
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
-    </row>
-    <row r="106" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -8250,8 +8427,9 @@
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
-    </row>
-    <row r="107" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -8261,8 +8439,9 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
-    </row>
-    <row r="108" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -8272,8 +8451,9 @@
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
-    </row>
-    <row r="109" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -8283,8 +8463,9 @@
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
-    </row>
-    <row r="110" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -8294,8 +8475,9 @@
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
-    </row>
-    <row r="111" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -8305,8 +8487,9 @@
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
-    </row>
-    <row r="112" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -8316,8 +8499,9 @@
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
-    </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -8327,8 +8511,9 @@
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
-    </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -8338,8 +8523,9 @@
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
-    </row>
-    <row r="115" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -8349,8 +8535,9 @@
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
-    </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -8360,8 +8547,9 @@
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
-    </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -8371,8 +8559,9 @@
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
-    </row>
-    <row r="118" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -8382,8 +8571,9 @@
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
-    </row>
-    <row r="119" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -8393,8 +8583,9 @@
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
-    </row>
-    <row r="120" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -8404,8 +8595,9 @@
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
-    </row>
-    <row r="121" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -8415,8 +8607,9 @@
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
-    </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -8426,8 +8619,9 @@
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
-    </row>
-    <row r="123" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -8437,8 +8631,9 @@
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
-    </row>
-    <row r="124" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -8448,8 +8643,9 @@
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
-    </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -8459,8 +8655,9 @@
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
-    </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -8470,8 +8667,9 @@
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
-    </row>
-    <row r="127" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -8481,8 +8679,9 @@
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
-    </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -8492,8 +8691,9 @@
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
-    </row>
-    <row r="129" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -8503,8 +8703,9 @@
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
-    </row>
-    <row r="130" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -8514,8 +8715,9 @@
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
-    </row>
-    <row r="131" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
@@ -8525,8 +8727,9 @@
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
-    </row>
-    <row r="132" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
@@ -8536,8 +8739,9 @@
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
-    </row>
-    <row r="133" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -8547,8 +8751,9 @@
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
-    </row>
-    <row r="134" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -8558,8 +8763,9 @@
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
-    </row>
-    <row r="135" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
@@ -8569,8 +8775,9 @@
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
-    </row>
-    <row r="136" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -8580,8 +8787,9 @@
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
-    </row>
-    <row r="137" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
@@ -8591,8 +8799,9 @@
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
-    </row>
-    <row r="138" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
@@ -8602,8 +8811,9 @@
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
-    </row>
-    <row r="139" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -8613,8 +8823,9 @@
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
-    </row>
-    <row r="140" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
@@ -8624,8 +8835,9 @@
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
-    </row>
-    <row r="141" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -8635,8 +8847,9 @@
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
-    </row>
-    <row r="142" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -8646,8 +8859,9 @@
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
-    </row>
-    <row r="143" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
@@ -8657,8 +8871,9 @@
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
-    </row>
-    <row r="144" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -8668,8 +8883,9 @@
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
-    </row>
-    <row r="145" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -8679,8 +8895,9 @@
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
-    </row>
-    <row r="146" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -8690,8 +8907,9 @@
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
-    </row>
-    <row r="147" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -8701,8 +8919,9 @@
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
-    </row>
-    <row r="148" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -8712,8 +8931,9 @@
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
-    </row>
-    <row r="149" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -8723,8 +8943,9 @@
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
-    </row>
-    <row r="150" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -8734,8 +8955,9 @@
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
-    </row>
-    <row r="151" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -8745,8 +8967,9 @@
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
-    </row>
-    <row r="152" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -8756,8 +8979,9 @@
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
-    </row>
-    <row r="153" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L152" s="6"/>
+    </row>
+    <row r="153" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -8767,8 +8991,9 @@
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
-    </row>
-    <row r="154" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L153" s="6"/>
+    </row>
+    <row r="154" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -8778,8 +9003,9 @@
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
-    </row>
-    <row r="155" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -8789,8 +9015,9 @@
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
-    </row>
-    <row r="156" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -8800,8 +9027,9 @@
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
-    </row>
-    <row r="157" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -8811,8 +9039,9 @@
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
-    </row>
-    <row r="158" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -8822,8 +9051,9 @@
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
-    </row>
-    <row r="159" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L158" s="6"/>
+    </row>
+    <row r="159" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -8833,8 +9063,9 @@
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
-    </row>
-    <row r="160" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L159" s="6"/>
+    </row>
+    <row r="160" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -8844,8 +9075,9 @@
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
-    </row>
-    <row r="161" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L160" s="6"/>
+    </row>
+    <row r="161" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -8855,8 +9087,9 @@
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
-    </row>
-    <row r="162" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -8866,8 +9099,9 @@
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
-    </row>
-    <row r="163" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -8877,8 +9111,9 @@
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
-    </row>
-    <row r="164" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -8888,8 +9123,9 @@
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
-    </row>
-    <row r="165" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -8899,8 +9135,9 @@
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
-    </row>
-    <row r="166" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -8910,8 +9147,9 @@
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
-    </row>
-    <row r="167" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -8921,8 +9159,9 @@
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
-    </row>
-    <row r="168" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -8932,8 +9171,9 @@
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
-    </row>
-    <row r="169" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -8943,8 +9183,9 @@
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
-    </row>
-    <row r="170" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -8954,8 +9195,9 @@
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
-    </row>
-    <row r="171" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -8965,8 +9207,9 @@
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
-    </row>
-    <row r="172" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L171" s="6"/>
+    </row>
+    <row r="172" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -8976,8 +9219,9 @@
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
-    </row>
-    <row r="173" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L172" s="6"/>
+    </row>
+    <row r="173" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -8987,8 +9231,9 @@
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
-    </row>
-    <row r="174" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L173" s="6"/>
+    </row>
+    <row r="174" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -8998,8 +9243,9 @@
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
-    </row>
-    <row r="175" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L174" s="6"/>
+    </row>
+    <row r="175" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -9009,8 +9255,9 @@
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
-    </row>
-    <row r="176" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L175" s="6"/>
+    </row>
+    <row r="176" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -9020,8 +9267,9 @@
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
-    </row>
-    <row r="177" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -9031,8 +9279,9 @@
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
-    </row>
-    <row r="178" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -9042,8 +9291,9 @@
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
-    </row>
-    <row r="179" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -9053,8 +9303,9 @@
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
-    </row>
-    <row r="180" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L179" s="6"/>
+    </row>
+    <row r="180" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -9064,8 +9315,9 @@
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
-    </row>
-    <row r="181" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -9075,8 +9327,9 @@
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
-    </row>
-    <row r="182" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L181" s="6"/>
+    </row>
+    <row r="182" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -9086,8 +9339,9 @@
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
-    </row>
-    <row r="183" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L182" s="6"/>
+    </row>
+    <row r="183" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -9097,8 +9351,9 @@
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
-    </row>
-    <row r="184" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L183" s="6"/>
+    </row>
+    <row r="184" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -9108,8 +9363,9 @@
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
-    </row>
-    <row r="185" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L184" s="6"/>
+    </row>
+    <row r="185" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -9119,8 +9375,9 @@
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
-    </row>
-    <row r="186" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L185" s="6"/>
+    </row>
+    <row r="186" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -9130,8 +9387,9 @@
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
-    </row>
-    <row r="187" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L186" s="6"/>
+    </row>
+    <row r="187" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -9141,8 +9399,9 @@
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
-    </row>
-    <row r="188" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L187" s="6"/>
+    </row>
+    <row r="188" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -9152,8 +9411,9 @@
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
-    </row>
-    <row r="189" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L188" s="6"/>
+    </row>
+    <row r="189" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -9163,8 +9423,9 @@
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
-    </row>
-    <row r="190" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L189" s="6"/>
+    </row>
+    <row r="190" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -9174,8 +9435,9 @@
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
-    </row>
-    <row r="191" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L190" s="6"/>
+    </row>
+    <row r="191" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -9185,8 +9447,9 @@
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
-    </row>
-    <row r="192" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L191" s="6"/>
+    </row>
+    <row r="192" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44A4DA8-662B-4116-A64C-1451D7A12AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFC0B6B-BED4-40F7-9A60-6FC7677880EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29625" yWindow="285" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FashionProto" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -195,14 +195,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1;1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -216,10 +208,6 @@
   </si>
   <si>
     <t>long[]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -308,6 +296,14 @@
   </si>
   <si>
     <t>0,130,175,45</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000159;10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000159;20</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -6941,7 +6937,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6990,7 +6986,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7007,10 +7003,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>17</v>
@@ -7022,7 +7018,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7030,7 +7026,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -7048,13 +7044,13 @@
         <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7071,18 +7067,18 @@
         <v>1002</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7099,18 +7095,18 @@
         <v>1004</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7127,18 +7123,18 @@
         <v>2001</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7155,18 +7151,18 @@
         <v>2002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7183,18 +7179,18 @@
         <v>1001</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7211,18 +7207,18 @@
         <v>3001</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7239,18 +7235,18 @@
         <v>3002</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7267,18 +7263,18 @@
         <v>1003</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7295,18 +7291,18 @@
         <v>1002</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7323,18 +7319,18 @@
         <v>1002</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFC0B6B-BED4-40F7-9A60-6FC7677880EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF97E19-7D70-4683-8199-4C96BFB7DB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,6 +85,7 @@
 1004  眉毛
 2001  披风
 2002  上衣
+2003  发饰
 3001  下衣
 3002  鞋子</t>
         </r>
@@ -121,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -268,13 +269,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Hero_lian_sima</t>
-  </si>
-  <si>
-    <t>司马.脸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>XX.脸</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -304,6 +298,10 @@
   </si>
   <si>
     <t>10000159;20</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布.头饰</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -6935,9 +6933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6986,7 +6984,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7018,7 +7016,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7050,7 +7048,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7070,15 +7068,15 @@
         <v>31</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7101,12 +7099,12 @@
         <v>25</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7129,12 +7127,12 @@
         <v>26</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7157,12 +7155,12 @@
         <v>24</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7185,12 +7183,12 @@
         <v>27</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7213,12 +7211,12 @@
         <v>28</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7241,12 +7239,12 @@
         <v>29</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7269,12 +7267,12 @@
         <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7291,143 +7289,271 @@
         <v>1002</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="7">
-        <v>20010001</v>
+      <c r="C15" s="5">
+        <v>20020001</v>
       </c>
       <c r="D15" s="7">
         <v>2</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>1002</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="5">
+        <v>20020002</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1004</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="5">
+        <v>20020003</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2003</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="5">
+        <v>20020004</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2002</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="5">
+        <v>20020005</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1001</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="5">
+        <v>20020006</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>3</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3001</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="5">
+        <v>20020007</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3002</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="5">
+        <v>20020008</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1003</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="5">
+        <v>20020009</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1002</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="6" t="s">
+      <c r="H23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="7"/>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF97E19-7D70-4683-8199-4C96BFB7DB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69825AA8-B4FC-4F84-9729-6B317399DB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FashionProto" sheetId="1" r:id="rId1"/>
@@ -6935,7 +6935,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69825AA8-B4FC-4F84-9729-6B317399DB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614EACE5-EDDF-467B-9C7B-A3D1E37E02DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>吕布.头饰</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -6935,7 +6939,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7036,7 +7040,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>18</v>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614EACE5-EDDF-467B-9C7B-A3D1E37E02DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6A3A3F-02BD-4A14-ABAA-C33313C42063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -302,10 +302,6 @@
   </si>
   <si>
     <t>吕布.头饰</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -6939,7 +6935,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6948,7 +6944,9 @@
     <col min="3" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="9" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="33.375" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="17.875" customWidth="1"/>
     <col min="11" max="11" width="23.75" customWidth="1"/>
     <col min="12" max="12" width="16.625" customWidth="1"/>
@@ -7040,7 +7038,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>18</v>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6A3A3F-02BD-4A14-ABAA-C33313C42063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6120E7D-811F-4321-BBC1-FE0DC9E767B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FashionProto" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="119">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -237,38 +237,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>吕布.脸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕布.眉毛</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕布.披风</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕布.上衣</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕布.头发</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕布.下身</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕布.鞋子</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕布.眼睛</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>XX.脸</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -301,8 +269,247 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>吕布.头饰</t>
+    <t>男.脸</t>
+  </si>
+  <si>
+    <t>男.眉毛</t>
+  </si>
+  <si>
+    <t>男.披风</t>
+  </si>
+  <si>
+    <t>男.上衣</t>
+  </si>
+  <si>
+    <t>男.头发</t>
+  </si>
+  <si>
+    <t>男.下身</t>
+  </si>
+  <si>
+    <t>男.鞋子</t>
+  </si>
+  <si>
+    <t>男.眼睛</t>
+  </si>
+  <si>
+    <t>女.脸</t>
+  </si>
+  <si>
+    <t>女.眉毛</t>
+  </si>
+  <si>
+    <t>女.头饰</t>
+  </si>
+  <si>
+    <t>女.上衣</t>
+  </si>
+  <si>
+    <t>女.头发</t>
+  </si>
+  <si>
+    <t>女.下身</t>
+  </si>
+  <si>
+    <t>女.鞋子</t>
+  </si>
+  <si>
+    <t>女.眼睛</t>
+  </si>
+  <si>
+    <t>zhanshi_1_lian</t>
+  </si>
+  <si>
+    <t>zhanshi_1_meimao</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_1_pifeng</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_1_shangyi</t>
+  </si>
+  <si>
+    <t>zhanshi_1_toufa</t>
+  </si>
+  <si>
+    <t>zhanshi_1_xiayi</t>
+  </si>
+  <si>
+    <t>zhanshi_1_xiezi</t>
+  </si>
+  <si>
+    <t>zhanshi_1_yanjing</t>
+  </si>
+  <si>
+    <t>zhanshi_2_lian</t>
+  </si>
+  <si>
+    <t>zhanshi_2_meimao</t>
+  </si>
+  <si>
+    <t>zhanshi_2_pifeng</t>
+  </si>
+  <si>
+    <t>zhanshi_2_shangyi</t>
+  </si>
+  <si>
+    <t>zhanshi_2_toufa</t>
+  </si>
+  <si>
+    <t>zhanshi_2_xiayi</t>
+  </si>
+  <si>
+    <t>zhanshi_2_xiezi</t>
+  </si>
+  <si>
+    <t>zhanshi_2_yanjing</t>
+  </si>
+  <si>
+    <t>骑士:脸</t>
+  </si>
+  <si>
+    <t>骑士:眉毛</t>
+  </si>
+  <si>
+    <t>骑士:披风</t>
+  </si>
+  <si>
+    <t>骑士:上衣</t>
+  </si>
+  <si>
+    <t>骑士:头发</t>
+  </si>
+  <si>
+    <t>骑士:下身</t>
+  </si>
+  <si>
+    <t>骑士:鞋子</t>
+  </si>
+  <si>
+    <t>骑士:眼睛</t>
+  </si>
+  <si>
+    <t>男爵:脸</t>
+  </si>
+  <si>
+    <t>男爵:眉毛</t>
+  </si>
+  <si>
+    <t>男爵:披风</t>
+  </si>
+  <si>
+    <t>男爵:上衣</t>
+  </si>
+  <si>
+    <t>男爵:头发</t>
+  </si>
+  <si>
+    <t>男爵:下身</t>
+  </si>
+  <si>
+    <t>男爵:鞋子</t>
+  </si>
+  <si>
+    <t>男爵:眼睛</t>
+  </si>
+  <si>
+    <t>fashi_1_lian</t>
+  </si>
+  <si>
+    <t>fashi_1_meimao</t>
+  </si>
+  <si>
+    <t>fashi_1_fashi</t>
+  </si>
+  <si>
+    <t>fashi_1_shangyi</t>
+  </si>
+  <si>
+    <t>fashi_1_toufa</t>
+  </si>
+  <si>
+    <t>fashi_1_xiayi</t>
+  </si>
+  <si>
+    <t>fashi_1_xiezi</t>
+  </si>
+  <si>
+    <t>fashi_1_yanjing</t>
+  </si>
+  <si>
+    <t>fashi_2_meimao</t>
+  </si>
+  <si>
+    <t>fashi_2_fashi</t>
+  </si>
+  <si>
+    <t>fashi_2_shangyi</t>
+  </si>
+  <si>
+    <t>fashi_2_toufa</t>
+  </si>
+  <si>
+    <t>fashi_2_xiayi</t>
+  </si>
+  <si>
+    <t>fashi_2_xiezi</t>
+  </si>
+  <si>
+    <t>fashi_2_yanjing</t>
+  </si>
+  <si>
+    <t>fashi_2_lian</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫:脸</t>
+  </si>
+  <si>
+    <t>女巫:眉毛</t>
+  </si>
+  <si>
+    <t>女巫:头饰</t>
+  </si>
+  <si>
+    <t>女巫:上衣</t>
+  </si>
+  <si>
+    <t>女巫:头发</t>
+  </si>
+  <si>
+    <t>女巫:下身</t>
+  </si>
+  <si>
+    <t>女巫:鞋子</t>
+  </si>
+  <si>
+    <t>女巫:眼睛</t>
+  </si>
+  <si>
+    <t>神圣:脸</t>
+  </si>
+  <si>
+    <t>神圣:眉毛</t>
+  </si>
+  <si>
+    <t>神圣:头饰</t>
+  </si>
+  <si>
+    <t>神圣:上衣</t>
+  </si>
+  <si>
+    <t>神圣:头发</t>
+  </si>
+  <si>
+    <t>神圣:下身</t>
+  </si>
+  <si>
+    <t>神圣:鞋子</t>
+  </si>
+  <si>
+    <t>神圣:眼睛</t>
   </si>
 </sst>
 </file>
@@ -6931,11 +7138,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L472"/>
+  <dimension ref="C1:L488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6986,7 +7193,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7018,7 +7225,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7050,7 +7257,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7067,18 +7274,18 @@
         <v>1002</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7095,18 +7302,18 @@
         <v>1004</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7123,18 +7330,18 @@
         <v>2001</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7151,18 +7358,18 @@
         <v>2002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7179,18 +7386,18 @@
         <v>1001</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7207,18 +7414,18 @@
         <v>3001</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7235,18 +7442,18 @@
         <v>3002</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7263,18 +7470,18 @@
         <v>1003</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7291,110 +7498,110 @@
         <v>1002</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="5">
-        <v>20020001</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="7">
+        <v>10000101</v>
       </c>
       <c r="D15" s="7">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
         <v>1</v>
       </c>
       <c r="F15" s="6">
         <v>1002</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="5">
-        <v>20020002</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="7">
+        <v>10000102</v>
       </c>
       <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
         <v>1</v>
       </c>
       <c r="F16" s="6">
         <v>1004</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="5">
-        <v>20020003</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="7">
+        <v>10000103</v>
       </c>
       <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
         <v>2</v>
       </c>
-      <c r="E17" s="7">
-        <v>2</v>
-      </c>
       <c r="F17" s="7">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="5">
-        <v>20020004</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="7">
+        <v>10000104</v>
       </c>
       <c r="D18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="9">
         <v>2</v>
@@ -7403,26 +7610,26 @@
         <v>2002</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>24</v>
+        <v>74</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="5">
-        <v>20020005</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="7">
+        <v>10000105</v>
       </c>
       <c r="D19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="9">
         <v>1</v>
@@ -7431,26 +7638,26 @@
         <v>1001</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>27</v>
+        <v>75</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="5">
-        <v>20020006</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="7">
+        <v>10000106</v>
       </c>
       <c r="D20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="9">
         <v>3</v>
@@ -7459,26 +7666,26 @@
         <v>3001</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>28</v>
+        <v>76</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="5">
-        <v>20020007</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="7">
+        <v>10000107</v>
       </c>
       <c r="D21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="9">
         <v>3</v>
@@ -7487,26 +7694,26 @@
         <v>3002</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>29</v>
+        <v>77</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="5">
-        <v>20020008</v>
+      <c r="C22" s="7">
+        <v>10000108</v>
       </c>
       <c r="D22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
@@ -7515,23 +7722,23 @@
         <v>1003</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="5">
-        <v>20020009</v>
+      <c r="C23" s="7">
+        <v>10000201</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
@@ -7543,403 +7750,915 @@
         <v>1002</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="3:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="3:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="6"/>
-    </row>
-    <row r="33" spans="3:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="3:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="3:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="3:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="3:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="6"/>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="6"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="6"/>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="6"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="6"/>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="6"/>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="6"/>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="6"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="6"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="6"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="6"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="6"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="6"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="6"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="6"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="6"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="7">
+        <v>10000202</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1004</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="7">
+        <v>10000203</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2001</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="7">
+        <v>10000204</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2002</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="7">
+        <v>10000205</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1001</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="7">
+        <v>10000206</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9">
+        <v>3</v>
+      </c>
+      <c r="F28" s="9">
+        <v>3001</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="7">
+        <v>10000207</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
+        <v>3</v>
+      </c>
+      <c r="F29" s="9">
+        <v>3002</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="7">
+        <v>10000208</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1003</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="5">
+        <v>20020001</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1002</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="5">
+        <v>20020002</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1004</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="5">
+        <v>20020003</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2003</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="5">
+        <v>20020004</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2002</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="5">
+        <v>20020005</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1001</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="5">
+        <v>20020006</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="9">
+        <v>3</v>
+      </c>
+      <c r="F36" s="9">
+        <v>3001</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="5">
+        <v>20020007</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2</v>
+      </c>
+      <c r="E37" s="9">
+        <v>3</v>
+      </c>
+      <c r="F37" s="9">
+        <v>3002</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="5">
+        <v>20020008</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1003</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="5">
+        <v>20020009</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1002</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="5">
+        <v>20000101</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1002</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="5">
+        <v>20000102</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1004</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="5">
+        <v>20000103</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7">
+        <v>2</v>
+      </c>
+      <c r="F42" s="7">
+        <v>2003</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="5">
+        <v>20000104</v>
+      </c>
+      <c r="D43" s="7">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9">
+        <v>2</v>
+      </c>
+      <c r="F43" s="9">
+        <v>2002</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="5">
+        <v>20000105</v>
+      </c>
+      <c r="D44" s="7">
+        <v>2</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1001</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="5">
+        <v>20000106</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+      <c r="E45" s="9">
+        <v>3</v>
+      </c>
+      <c r="F45" s="9">
+        <v>3001</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="5">
+        <v>20000107</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="9">
+        <v>3</v>
+      </c>
+      <c r="F46" s="9">
+        <v>3002</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="5">
+        <v>20000108</v>
+      </c>
+      <c r="D47" s="7">
+        <v>2</v>
+      </c>
+      <c r="E47" s="9">
+        <v>1</v>
+      </c>
+      <c r="F47" s="9">
+        <v>1003</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="5">
+        <v>20000201</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1002</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="5">
+        <v>20000202</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1004</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="5">
+        <v>20000203</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2</v>
+      </c>
+      <c r="E50" s="7">
+        <v>2</v>
+      </c>
+      <c r="F50" s="7">
+        <v>2003</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="5">
+        <v>20000204</v>
+      </c>
+      <c r="D51" s="7">
+        <v>2</v>
+      </c>
+      <c r="E51" s="9">
+        <v>2</v>
+      </c>
+      <c r="F51" s="9">
+        <v>2002</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="5">
+        <v>20000205</v>
+      </c>
+      <c r="D52" s="7">
+        <v>2</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1001</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="5">
+        <v>20000206</v>
+      </c>
+      <c r="D53" s="7">
+        <v>2</v>
+      </c>
+      <c r="E53" s="9">
+        <v>3</v>
+      </c>
+      <c r="F53" s="9">
+        <v>3001</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="5">
+        <v>20000207</v>
+      </c>
+      <c r="D54" s="7">
+        <v>2</v>
+      </c>
+      <c r="E54" s="9">
+        <v>3</v>
+      </c>
+      <c r="F54" s="9">
+        <v>3002</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="5">
+        <v>20000208</v>
+      </c>
+      <c r="D55" s="7">
+        <v>2</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1003</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="7"/>
@@ -9583,8 +10302,9 @@
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
-    </row>
-    <row r="193" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L192" s="6"/>
+    </row>
+    <row r="193" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -9594,8 +10314,9 @@
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
-    </row>
-    <row r="194" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L193" s="6"/>
+    </row>
+    <row r="194" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -9605,8 +10326,9 @@
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
-    </row>
-    <row r="195" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L194" s="6"/>
+    </row>
+    <row r="195" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -9616,8 +10338,9 @@
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
-    </row>
-    <row r="196" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L195" s="6"/>
+    </row>
+    <row r="196" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -9627,8 +10350,9 @@
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
-    </row>
-    <row r="197" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L196" s="6"/>
+    </row>
+    <row r="197" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -9638,8 +10362,9 @@
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
-    </row>
-    <row r="198" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L197" s="6"/>
+    </row>
+    <row r="198" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -9649,8 +10374,9 @@
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
-    </row>
-    <row r="199" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L198" s="6"/>
+    </row>
+    <row r="199" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -9660,8 +10386,9 @@
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
-    </row>
-    <row r="200" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L199" s="6"/>
+    </row>
+    <row r="200" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -9671,8 +10398,9 @@
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
-    </row>
-    <row r="201" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L200" s="6"/>
+    </row>
+    <row r="201" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -9682,8 +10410,9 @@
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
-    </row>
-    <row r="202" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L201" s="6"/>
+    </row>
+    <row r="202" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -9693,8 +10422,9 @@
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
-    </row>
-    <row r="203" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L202" s="6"/>
+    </row>
+    <row r="203" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -9704,8 +10434,9 @@
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
-    </row>
-    <row r="204" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L203" s="6"/>
+    </row>
+    <row r="204" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -9715,8 +10446,9 @@
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
-    </row>
-    <row r="205" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L204" s="6"/>
+    </row>
+    <row r="205" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -9726,8 +10458,9 @@
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
-    </row>
-    <row r="206" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L205" s="6"/>
+    </row>
+    <row r="206" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -9737,8 +10470,9 @@
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
-    </row>
-    <row r="207" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L206" s="6"/>
+    </row>
+    <row r="207" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -9748,8 +10482,9 @@
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
-    </row>
-    <row r="208" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L207" s="6"/>
+    </row>
+    <row r="208" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -12664,6 +13399,182 @@
       <c r="J472" s="7"/>
       <c r="K472" s="7"/>
     </row>
+    <row r="473" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C473" s="7"/>
+      <c r="D473" s="7"/>
+      <c r="E473" s="7"/>
+      <c r="F473" s="7"/>
+      <c r="G473" s="7"/>
+      <c r="H473" s="7"/>
+      <c r="I473" s="7"/>
+      <c r="J473" s="7"/>
+      <c r="K473" s="7"/>
+    </row>
+    <row r="474" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C474" s="7"/>
+      <c r="D474" s="7"/>
+      <c r="E474" s="7"/>
+      <c r="F474" s="7"/>
+      <c r="G474" s="7"/>
+      <c r="H474" s="7"/>
+      <c r="I474" s="7"/>
+      <c r="J474" s="7"/>
+      <c r="K474" s="7"/>
+    </row>
+    <row r="475" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C475" s="7"/>
+      <c r="D475" s="7"/>
+      <c r="E475" s="7"/>
+      <c r="F475" s="7"/>
+      <c r="G475" s="7"/>
+      <c r="H475" s="7"/>
+      <c r="I475" s="7"/>
+      <c r="J475" s="7"/>
+      <c r="K475" s="7"/>
+    </row>
+    <row r="476" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C476" s="7"/>
+      <c r="D476" s="7"/>
+      <c r="E476" s="7"/>
+      <c r="F476" s="7"/>
+      <c r="G476" s="7"/>
+      <c r="H476" s="7"/>
+      <c r="I476" s="7"/>
+      <c r="J476" s="7"/>
+      <c r="K476" s="7"/>
+    </row>
+    <row r="477" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C477" s="7"/>
+      <c r="D477" s="7"/>
+      <c r="E477" s="7"/>
+      <c r="F477" s="7"/>
+      <c r="G477" s="7"/>
+      <c r="H477" s="7"/>
+      <c r="I477" s="7"/>
+      <c r="J477" s="7"/>
+      <c r="K477" s="7"/>
+    </row>
+    <row r="478" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C478" s="7"/>
+      <c r="D478" s="7"/>
+      <c r="E478" s="7"/>
+      <c r="F478" s="7"/>
+      <c r="G478" s="7"/>
+      <c r="H478" s="7"/>
+      <c r="I478" s="7"/>
+      <c r="J478" s="7"/>
+      <c r="K478" s="7"/>
+    </row>
+    <row r="479" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C479" s="7"/>
+      <c r="D479" s="7"/>
+      <c r="E479" s="7"/>
+      <c r="F479" s="7"/>
+      <c r="G479" s="7"/>
+      <c r="H479" s="7"/>
+      <c r="I479" s="7"/>
+      <c r="J479" s="7"/>
+      <c r="K479" s="7"/>
+    </row>
+    <row r="480" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C480" s="7"/>
+      <c r="D480" s="7"/>
+      <c r="E480" s="7"/>
+      <c r="F480" s="7"/>
+      <c r="G480" s="7"/>
+      <c r="H480" s="7"/>
+      <c r="I480" s="7"/>
+      <c r="J480" s="7"/>
+      <c r="K480" s="7"/>
+    </row>
+    <row r="481" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C481" s="7"/>
+      <c r="D481" s="7"/>
+      <c r="E481" s="7"/>
+      <c r="F481" s="7"/>
+      <c r="G481" s="7"/>
+      <c r="H481" s="7"/>
+      <c r="I481" s="7"/>
+      <c r="J481" s="7"/>
+      <c r="K481" s="7"/>
+    </row>
+    <row r="482" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C482" s="7"/>
+      <c r="D482" s="7"/>
+      <c r="E482" s="7"/>
+      <c r="F482" s="7"/>
+      <c r="G482" s="7"/>
+      <c r="H482" s="7"/>
+      <c r="I482" s="7"/>
+      <c r="J482" s="7"/>
+      <c r="K482" s="7"/>
+    </row>
+    <row r="483" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C483" s="7"/>
+      <c r="D483" s="7"/>
+      <c r="E483" s="7"/>
+      <c r="F483" s="7"/>
+      <c r="G483" s="7"/>
+      <c r="H483" s="7"/>
+      <c r="I483" s="7"/>
+      <c r="J483" s="7"/>
+      <c r="K483" s="7"/>
+    </row>
+    <row r="484" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C484" s="7"/>
+      <c r="D484" s="7"/>
+      <c r="E484" s="7"/>
+      <c r="F484" s="7"/>
+      <c r="G484" s="7"/>
+      <c r="H484" s="7"/>
+      <c r="I484" s="7"/>
+      <c r="J484" s="7"/>
+      <c r="K484" s="7"/>
+    </row>
+    <row r="485" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C485" s="7"/>
+      <c r="D485" s="7"/>
+      <c r="E485" s="7"/>
+      <c r="F485" s="7"/>
+      <c r="G485" s="7"/>
+      <c r="H485" s="7"/>
+      <c r="I485" s="7"/>
+      <c r="J485" s="7"/>
+      <c r="K485" s="7"/>
+    </row>
+    <row r="486" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C486" s="7"/>
+      <c r="D486" s="7"/>
+      <c r="E486" s="7"/>
+      <c r="F486" s="7"/>
+      <c r="G486" s="7"/>
+      <c r="H486" s="7"/>
+      <c r="I486" s="7"/>
+      <c r="J486" s="7"/>
+      <c r="K486" s="7"/>
+    </row>
+    <row r="487" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C487" s="7"/>
+      <c r="D487" s="7"/>
+      <c r="E487" s="7"/>
+      <c r="F487" s="7"/>
+      <c r="G487" s="7"/>
+      <c r="H487" s="7"/>
+      <c r="I487" s="7"/>
+      <c r="J487" s="7"/>
+      <c r="K487" s="7"/>
+    </row>
+    <row r="488" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C488" s="7"/>
+      <c r="D488" s="7"/>
+      <c r="E488" s="7"/>
+      <c r="F488" s="7"/>
+      <c r="G488" s="7"/>
+      <c r="H488" s="7"/>
+      <c r="I488" s="7"/>
+      <c r="J488" s="7"/>
+      <c r="K488" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6120E7D-811F-4321-BBC1-FE0DC9E767B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079BC0DD-DFFA-42BC-8E34-1F963FF3C5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FashionProto" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="120">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -510,6 +510,10 @@
   </si>
   <si>
     <t>神圣:眼睛</t>
+  </si>
+  <si>
+    <t>zhanshi_1_xiayi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7140,9 +7144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L488"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7669,7 +7673,7 @@
         <v>76</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>38</v>
@@ -8189,7 +8193,7 @@
         <v>20020009</v>
       </c>
       <c r="D39" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="9">
         <v>1</v>
@@ -8660,305 +8664,705 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="6"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="6"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="6"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="6"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="6"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="6"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="6"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="6"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="6"/>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="6"/>
-    </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="6"/>
-    </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="6"/>
-    </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="6"/>
-    </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="6"/>
-    </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="6"/>
-    </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="6"/>
-    </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="6"/>
-    </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="6"/>
-    </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="6"/>
-    </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="6"/>
-    </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="6"/>
-    </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="6"/>
-    </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="6"/>
-    </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="6"/>
-    </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="6"/>
+    <row r="56" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="5">
+        <v>30030001</v>
+      </c>
+      <c r="D56" s="7">
+        <v>3</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1002</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="5">
+        <v>30030002</v>
+      </c>
+      <c r="D57" s="7">
+        <v>3</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1004</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="7">
+        <v>30030003</v>
+      </c>
+      <c r="D58" s="7">
+        <v>3</v>
+      </c>
+      <c r="E58" s="7">
+        <v>2</v>
+      </c>
+      <c r="F58" s="7">
+        <v>2001</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="5">
+        <v>30030004</v>
+      </c>
+      <c r="D59" s="7">
+        <v>3</v>
+      </c>
+      <c r="E59" s="9">
+        <v>2</v>
+      </c>
+      <c r="F59" s="9">
+        <v>2002</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="5">
+        <v>30030005</v>
+      </c>
+      <c r="D60" s="7">
+        <v>3</v>
+      </c>
+      <c r="E60" s="9">
+        <v>1</v>
+      </c>
+      <c r="F60" s="9">
+        <v>1001</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="7">
+        <v>30030006</v>
+      </c>
+      <c r="D61" s="7">
+        <v>3</v>
+      </c>
+      <c r="E61" s="9">
+        <v>3</v>
+      </c>
+      <c r="F61" s="9">
+        <v>3001</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="5">
+        <v>30030007</v>
+      </c>
+      <c r="D62" s="7">
+        <v>3</v>
+      </c>
+      <c r="E62" s="9">
+        <v>3</v>
+      </c>
+      <c r="F62" s="9">
+        <v>3002</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="5">
+        <v>30030008</v>
+      </c>
+      <c r="D63" s="7">
+        <v>3</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1003</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="7">
+        <v>30030009</v>
+      </c>
+      <c r="D64" s="7">
+        <v>3</v>
+      </c>
+      <c r="E64" s="9">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1002</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="7">
+        <v>30000101</v>
+      </c>
+      <c r="D65" s="7">
+        <v>3</v>
+      </c>
+      <c r="E65" s="9">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1002</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="7">
+        <v>30000102</v>
+      </c>
+      <c r="D66" s="7">
+        <v>3</v>
+      </c>
+      <c r="E66" s="9">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1004</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="7">
+        <v>30000103</v>
+      </c>
+      <c r="D67" s="7">
+        <v>3</v>
+      </c>
+      <c r="E67" s="9">
+        <v>2</v>
+      </c>
+      <c r="F67" s="7">
+        <v>2001</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="7">
+        <v>30000104</v>
+      </c>
+      <c r="D68" s="7">
+        <v>3</v>
+      </c>
+      <c r="E68" s="9">
+        <v>2</v>
+      </c>
+      <c r="F68" s="9">
+        <v>2002</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="7">
+        <v>30000105</v>
+      </c>
+      <c r="D69" s="7">
+        <v>3</v>
+      </c>
+      <c r="E69" s="9">
+        <v>1</v>
+      </c>
+      <c r="F69" s="9">
+        <v>1001</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="7">
+        <v>30000106</v>
+      </c>
+      <c r="D70" s="7">
+        <v>3</v>
+      </c>
+      <c r="E70" s="9">
+        <v>3</v>
+      </c>
+      <c r="F70" s="9">
+        <v>3001</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="7">
+        <v>30000107</v>
+      </c>
+      <c r="D71" s="7">
+        <v>3</v>
+      </c>
+      <c r="E71" s="9">
+        <v>3</v>
+      </c>
+      <c r="F71" s="9">
+        <v>3002</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="7">
+        <v>30000108</v>
+      </c>
+      <c r="D72" s="7">
+        <v>3</v>
+      </c>
+      <c r="E72" s="9">
+        <v>1</v>
+      </c>
+      <c r="F72" s="9">
+        <v>1003</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="7">
+        <v>30000201</v>
+      </c>
+      <c r="D73" s="7">
+        <v>3</v>
+      </c>
+      <c r="E73" s="9">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1002</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="7">
+        <v>30000202</v>
+      </c>
+      <c r="D74" s="7">
+        <v>3</v>
+      </c>
+      <c r="E74" s="9">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1004</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="7">
+        <v>30000203</v>
+      </c>
+      <c r="D75" s="7">
+        <v>3</v>
+      </c>
+      <c r="E75" s="9">
+        <v>2</v>
+      </c>
+      <c r="F75" s="7">
+        <v>2001</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="7">
+        <v>30000204</v>
+      </c>
+      <c r="D76" s="7">
+        <v>3</v>
+      </c>
+      <c r="E76" s="9">
+        <v>2</v>
+      </c>
+      <c r="F76" s="9">
+        <v>2002</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="7">
+        <v>30000205</v>
+      </c>
+      <c r="D77" s="7">
+        <v>3</v>
+      </c>
+      <c r="E77" s="9">
+        <v>1</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1001</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="7">
+        <v>30000206</v>
+      </c>
+      <c r="D78" s="7">
+        <v>3</v>
+      </c>
+      <c r="E78" s="9">
+        <v>3</v>
+      </c>
+      <c r="F78" s="9">
+        <v>3001</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="7">
+        <v>30000207</v>
+      </c>
+      <c r="D79" s="7">
+        <v>3</v>
+      </c>
+      <c r="E79" s="9">
+        <v>3</v>
+      </c>
+      <c r="F79" s="9">
+        <v>3002</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="7">
+        <v>30000208</v>
+      </c>
+      <c r="D80" s="7">
+        <v>3</v>
+      </c>
+      <c r="E80" s="9">
+        <v>1</v>
+      </c>
+      <c r="F80" s="9">
+        <v>1003</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="7"/>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079BC0DD-DFFA-42BC-8E34-1F963FF3C5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67931CD5-412C-47B2-A1B3-81150DE26B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FashionProto" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="122">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -291,30 +291,6 @@
   </si>
   <si>
     <t>男.眼睛</t>
-  </si>
-  <si>
-    <t>女.脸</t>
-  </si>
-  <si>
-    <t>女.眉毛</t>
-  </si>
-  <si>
-    <t>女.头饰</t>
-  </si>
-  <si>
-    <t>女.上衣</t>
-  </si>
-  <si>
-    <t>女.头发</t>
-  </si>
-  <si>
-    <t>女.下身</t>
-  </si>
-  <si>
-    <t>女.鞋子</t>
-  </si>
-  <si>
-    <t>女.眼睛</t>
   </si>
   <si>
     <t>zhanshi_1_lian</t>
@@ -513,6 +489,46 @@
   </si>
   <si>
     <t>zhanshi_1_xiayi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_1_xiezi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-脸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-发饰</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-衣服</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_1_lian</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_1_shangyi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi@zhanshi_1_pifeng</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_1_toufa</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_1_yanjing</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -7142,11 +7158,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L488"/>
+  <dimension ref="C1:L473"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7156,7 +7172,7 @@
     <col min="5" max="5" width="21.375" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="33.375" customWidth="1"/>
+    <col min="8" max="8" width="64.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="17.875" customWidth="1"/>
     <col min="11" max="11" width="23.75" customWidth="1"/>
@@ -7264,24 +7280,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="5">
-        <v>10010001</v>
+    <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="7">
+        <v>10000101</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="6">
         <v>1002</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>38</v>
@@ -7292,24 +7308,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="5">
-        <v>10010002</v>
+    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="7">
+        <v>10000102</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="9">
         <v>1</v>
       </c>
       <c r="F7" s="6">
         <v>1004</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>37</v>
@@ -7320,24 +7336,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7">
-        <v>10010003</v>
+        <v>10000103</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="9">
         <v>2</v>
       </c>
       <c r="F8" s="7">
         <v>2001</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
+        <v>65</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>38</v>
@@ -7348,9 +7364,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="5">
-        <v>10010004</v>
+    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="7">
+        <v>10000104</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -7362,10 +7378,10 @@
         <v>2002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>38</v>
@@ -7376,9 +7392,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="5">
-        <v>10010005</v>
+    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="7">
+        <v>10000105</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -7390,10 +7406,10 @@
         <v>1001</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>27</v>
+        <v>67</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>38</v>
@@ -7404,9 +7420,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="7">
-        <v>10010006</v>
+        <v>10000106</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -7418,10 +7434,10 @@
         <v>3001</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>38</v>
@@ -7432,9 +7448,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="5">
-        <v>10010007</v>
+    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="7">
+        <v>10000107</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -7446,10 +7462,10 @@
         <v>3002</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>29</v>
+        <v>69</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>38</v>
@@ -7461,8 +7477,8 @@
       </c>
     </row>
     <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="5">
-        <v>10010008</v>
+      <c r="C13" s="7">
+        <v>10000108</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -7474,10 +7490,10 @@
         <v>1003</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>30</v>
+        <v>70</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>37</v>
@@ -7490,7 +7506,7 @@
     </row>
     <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="7">
-        <v>10010009</v>
+        <v>10000201</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
@@ -7502,10 +7518,10 @@
         <v>1002</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>38</v>
@@ -7518,7 +7534,7 @@
     </row>
     <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="7">
-        <v>10000101</v>
+        <v>10000202</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -7527,16 +7543,16 @@
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -7546,25 +7562,25 @@
     </row>
     <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="7">
-        <v>10000102</v>
+        <v>10000203</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
       </c>
       <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1004</v>
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2001</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -7574,7 +7590,7 @@
     </row>
     <row r="17" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="7">
-        <v>10000103</v>
+        <v>10000204</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -7582,14 +7598,14 @@
       <c r="E17" s="9">
         <v>2</v>
       </c>
-      <c r="F17" s="7">
-        <v>2001</v>
+      <c r="F17" s="9">
+        <v>2002</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>38</v>
@@ -7602,22 +7618,22 @@
     </row>
     <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="7">
-        <v>10000104</v>
+        <v>10000205</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="9">
-        <v>2002</v>
+        <v>1001</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>38</v>
@@ -7630,22 +7646,22 @@
     </row>
     <row r="19" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="7">
-        <v>10000105</v>
+        <v>10000206</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
       </c>
       <c r="E19" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="9">
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>38</v>
@@ -7658,7 +7674,7 @@
     </row>
     <row r="20" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="7">
-        <v>10000106</v>
+        <v>10000207</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -7667,13 +7683,13 @@
         <v>3</v>
       </c>
       <c r="F20" s="9">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>38</v>
@@ -7686,25 +7702,25 @@
     </row>
     <row r="21" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="7">
-        <v>10000107</v>
+        <v>10000208</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
       </c>
       <c r="E21" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="9">
-        <v>3002</v>
+        <v>1003</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -7714,7 +7730,7 @@
     </row>
     <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="7">
-        <v>10000108</v>
+        <v>10000301</v>
       </c>
       <c r="D22" s="7">
         <v>1</v>
@@ -7722,17 +7738,17 @@
       <c r="E22" s="9">
         <v>1</v>
       </c>
-      <c r="F22" s="9">
-        <v>1003</v>
+      <c r="F22" s="6">
+        <v>1002</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -7742,22 +7758,22 @@
     </row>
     <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="7">
-        <v>10000201</v>
+        <v>10000302</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
       </c>
       <c r="E23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1002</v>
+        <v>2</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2002</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>38</v>
@@ -7770,25 +7786,25 @@
     </row>
     <row r="24" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="7">
-        <v>10000202</v>
+        <v>10000303</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
       </c>
       <c r="E24" s="9">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1004</v>
+        <v>3</v>
+      </c>
+      <c r="F24" s="9">
+        <v>3002</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -7796,24 +7812,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="7">
-        <v>10000203</v>
+    <row r="25" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="5">
+        <v>20000101</v>
       </c>
       <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="E25" s="9">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2001</v>
+      <c r="F25" s="6">
+        <v>1002</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -7824,27 +7840,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="7">
-        <v>10000204</v>
+    <row r="26" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="5">
+        <v>20000102</v>
       </c>
       <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6">
         <v>1</v>
       </c>
-      <c r="E26" s="9">
-        <v>2</v>
-      </c>
-      <c r="F26" s="9">
-        <v>2002</v>
+      <c r="F26" s="6">
+        <v>1004</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -7852,24 +7868,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="7">
-        <v>10000205</v>
+    <row r="27" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="5">
+        <v>20000103</v>
       </c>
       <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1</v>
-      </c>
-      <c r="F27" s="9">
-        <v>1001</v>
+        <v>2</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2003</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>67</v>
+        <v>97</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>38</v>
@@ -7880,24 +7896,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="7">
-        <v>10000206</v>
+    <row r="28" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="5">
+        <v>20000104</v>
       </c>
       <c r="D28" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="9">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>68</v>
+        <v>98</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>38</v>
@@ -7908,24 +7924,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="7">
-        <v>10000207</v>
+    <row r="29" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="5">
+        <v>20000105</v>
       </c>
       <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="9">
         <v>1</v>
       </c>
-      <c r="E29" s="9">
-        <v>3</v>
-      </c>
       <c r="F29" s="9">
-        <v>3002</v>
+        <v>1001</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>69</v>
+        <v>99</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>38</v>
@@ -7936,27 +7952,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="7">
-        <v>10000208</v>
+    <row r="30" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="5">
+        <v>20000106</v>
       </c>
       <c r="D30" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" s="9">
-        <v>1003</v>
+        <v>3001</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>70</v>
+        <v>100</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -7966,22 +7982,22 @@
     </row>
     <row r="31" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="5">
-        <v>20020001</v>
+        <v>20000107</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
       </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1002</v>
+      <c r="E31" s="9">
+        <v>3</v>
+      </c>
+      <c r="F31" s="9">
+        <v>3002</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>32</v>
+        <v>101</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>38</v>
@@ -7992,24 +8008,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="5">
-        <v>20020002</v>
+        <v>20000108</v>
       </c>
       <c r="D32" s="7">
         <v>2</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="9">
         <v>1</v>
       </c>
-      <c r="F32" s="6">
-        <v>1004</v>
+      <c r="F32" s="9">
+        <v>1003</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>25</v>
+        <v>102</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>37</v>
@@ -8022,22 +8038,22 @@
     </row>
     <row r="33" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="5">
-        <v>20020003</v>
+        <v>20000201</v>
       </c>
       <c r="D33" s="7">
         <v>2</v>
       </c>
-      <c r="E33" s="7">
-        <v>2</v>
-      </c>
-      <c r="F33" s="7">
-        <v>2003</v>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1002</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>26</v>
+        <v>103</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>38</v>
@@ -8050,25 +8066,25 @@
     </row>
     <row r="34" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="5">
-        <v>20020004</v>
+        <v>20000202</v>
       </c>
       <c r="D34" s="7">
         <v>2</v>
       </c>
-      <c r="E34" s="9">
-        <v>2</v>
-      </c>
-      <c r="F34" s="9">
-        <v>2002</v>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1004</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>24</v>
+        <v>104</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -8078,22 +8094,22 @@
     </row>
     <row r="35" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="5">
-        <v>20020005</v>
+        <v>20000203</v>
       </c>
       <c r="D35" s="7">
         <v>2</v>
       </c>
-      <c r="E35" s="9">
-        <v>1</v>
-      </c>
-      <c r="F35" s="9">
-        <v>1001</v>
+      <c r="E35" s="7">
+        <v>2</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2003</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>27</v>
+        <v>105</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>38</v>
@@ -8106,22 +8122,22 @@
     </row>
     <row r="36" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="5">
-        <v>20020006</v>
+        <v>20000204</v>
       </c>
       <c r="D36" s="7">
         <v>2</v>
       </c>
       <c r="E36" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" s="9">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>38</v>
@@ -8134,22 +8150,22 @@
     </row>
     <row r="37" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="5">
-        <v>20020007</v>
+        <v>20000205</v>
       </c>
       <c r="D37" s="7">
         <v>2</v>
       </c>
       <c r="E37" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37" s="9">
-        <v>3002</v>
+        <v>1001</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>38</v>
@@ -8160,27 +8176,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="5">
-        <v>20020008</v>
+        <v>20000206</v>
       </c>
       <c r="D38" s="7">
         <v>2</v>
       </c>
       <c r="E38" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" s="9">
-        <v>1003</v>
+        <v>3001</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -8188,24 +8204,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="5">
-        <v>20020009</v>
+        <v>20000207</v>
       </c>
       <c r="D39" s="7">
         <v>2</v>
       </c>
       <c r="E39" s="9">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
-        <v>1002</v>
+        <v>3</v>
+      </c>
+      <c r="F39" s="9">
+        <v>3002</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>23</v>
+        <v>109</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>38</v>
@@ -8216,27 +8232,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="5">
-        <v>20000101</v>
+        <v>20000208</v>
       </c>
       <c r="D40" s="7">
         <v>2</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="9">
         <v>1</v>
       </c>
-      <c r="F40" s="6">
-        <v>1002</v>
+      <c r="F40" s="9">
+        <v>1003</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>87</v>
+        <v>110</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -8246,25 +8262,25 @@
     </row>
     <row r="41" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="5">
-        <v>20000102</v>
+        <v>30030001</v>
       </c>
       <c r="D41" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -8274,25 +8290,25 @@
     </row>
     <row r="42" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="5">
-        <v>20000103</v>
+        <v>30030002</v>
       </c>
       <c r="D42" s="7">
-        <v>2</v>
-      </c>
-      <c r="E42" s="7">
-        <v>2</v>
-      </c>
-      <c r="F42" s="7">
-        <v>2003</v>
+        <v>3</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1004</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>89</v>
+        <v>40</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -8301,23 +8317,23 @@
       </c>
     </row>
     <row r="43" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="5">
-        <v>20000104</v>
+      <c r="C43" s="7">
+        <v>30030003</v>
       </c>
       <c r="D43" s="7">
+        <v>3</v>
+      </c>
+      <c r="E43" s="7">
         <v>2</v>
       </c>
-      <c r="E43" s="9">
-        <v>2</v>
-      </c>
-      <c r="F43" s="9">
-        <v>2002</v>
+      <c r="F43" s="7">
+        <v>2001</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>90</v>
+        <v>41</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>38</v>
@@ -8330,22 +8346,22 @@
     </row>
     <row r="44" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="5">
-        <v>20000105</v>
+        <v>30030004</v>
       </c>
       <c r="D44" s="7">
+        <v>3</v>
+      </c>
+      <c r="E44" s="9">
         <v>2</v>
       </c>
-      <c r="E44" s="9">
-        <v>1</v>
-      </c>
       <c r="F44" s="9">
-        <v>1001</v>
+        <v>2002</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>38</v>
@@ -8358,22 +8374,22 @@
     </row>
     <row r="45" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="5">
-        <v>20000106</v>
+        <v>30030005</v>
       </c>
       <c r="D45" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45" s="9">
-        <v>3001</v>
+        <v>1001</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>38</v>
@@ -8385,23 +8401,23 @@
       </c>
     </row>
     <row r="46" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="5">
-        <v>20000107</v>
+      <c r="C46" s="7">
+        <v>30030006</v>
       </c>
       <c r="D46" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="9">
         <v>3</v>
       </c>
       <c r="F46" s="9">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>38</v>
@@ -8412,27 +8428,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="5">
-        <v>20000108</v>
+        <v>30030007</v>
       </c>
       <c r="D47" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" s="9">
-        <v>1003</v>
+        <v>3002</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -8440,27 +8456,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="5">
-        <v>20000201</v>
+        <v>30030008</v>
       </c>
       <c r="D48" s="7">
-        <v>2</v>
-      </c>
-      <c r="E48" s="6">
+        <v>3</v>
+      </c>
+      <c r="E48" s="9">
         <v>1</v>
       </c>
-      <c r="F48" s="6">
-        <v>1002</v>
+      <c r="F48" s="9">
+        <v>1003</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>102</v>
+        <v>46</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -8468,27 +8484,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="5">
-        <v>20000202</v>
+    <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="7">
+        <v>30030009</v>
       </c>
       <c r="D49" s="7">
-        <v>2</v>
-      </c>
-      <c r="E49" s="6">
+        <v>3</v>
+      </c>
+      <c r="E49" s="9">
         <v>1</v>
       </c>
       <c r="F49" s="6">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -8496,24 +8512,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="5">
-        <v>20000203</v>
+    <row r="50" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="7">
+        <v>30000101</v>
       </c>
       <c r="D50" s="7">
-        <v>2</v>
-      </c>
-      <c r="E50" s="7">
-        <v>2</v>
-      </c>
-      <c r="F50" s="7">
-        <v>2003</v>
+        <v>3</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1002</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>96</v>
+        <v>63</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>38</v>
@@ -8524,27 +8540,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="5">
-        <v>20000204</v>
+    <row r="51" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="7">
+        <v>30000102</v>
       </c>
       <c r="D51" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" s="9">
-        <v>2</v>
-      </c>
-      <c r="F51" s="9">
-        <v>2002</v>
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1004</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>97</v>
+        <v>64</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -8552,24 +8568,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="5">
-        <v>20000205</v>
+    <row r="52" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="7">
+        <v>30000103</v>
       </c>
       <c r="D52" s="7">
+        <v>3</v>
+      </c>
+      <c r="E52" s="9">
         <v>2</v>
       </c>
-      <c r="E52" s="9">
-        <v>1</v>
-      </c>
-      <c r="F52" s="9">
-        <v>1001</v>
+      <c r="F52" s="7">
+        <v>2001</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>98</v>
+        <v>65</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>38</v>
@@ -8580,24 +8596,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="5">
-        <v>20000206</v>
+    <row r="53" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="7">
+        <v>30000104</v>
       </c>
       <c r="D53" s="7">
+        <v>3</v>
+      </c>
+      <c r="E53" s="9">
         <v>2</v>
       </c>
-      <c r="E53" s="9">
-        <v>3</v>
-      </c>
       <c r="F53" s="9">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>99</v>
+        <v>66</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>38</v>
@@ -8608,24 +8624,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="5">
-        <v>20000207</v>
+    <row r="54" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="7">
+        <v>30000105</v>
       </c>
       <c r="D54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54" s="9">
-        <v>3002</v>
+        <v>1001</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>38</v>
@@ -8637,26 +8653,26 @@
       </c>
     </row>
     <row r="55" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="5">
-        <v>20000208</v>
+      <c r="C55" s="7">
+        <v>30000106</v>
       </c>
       <c r="D55" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" s="9">
-        <v>1003</v>
+        <v>3001</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>101</v>
+        <v>68</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -8664,24 +8680,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="5">
-        <v>30030001</v>
+    <row r="56" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="7">
+        <v>30000107</v>
       </c>
       <c r="D56" s="7">
         <v>3</v>
       </c>
-      <c r="E56" s="6">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6">
-        <v>1002</v>
+      <c r="E56" s="9">
+        <v>3</v>
+      </c>
+      <c r="F56" s="9">
+        <v>3002</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>38</v>
@@ -8692,24 +8708,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="5">
-        <v>30030002</v>
+    <row r="57" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="7">
+        <v>30000108</v>
       </c>
       <c r="D57" s="7">
         <v>3</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="9">
         <v>1</v>
       </c>
-      <c r="F57" s="6">
-        <v>1004</v>
+      <c r="F57" s="9">
+        <v>1003</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>37</v>
@@ -8720,24 +8736,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="7">
-        <v>30030003</v>
+        <v>30000201</v>
       </c>
       <c r="D58" s="7">
         <v>3</v>
       </c>
-      <c r="E58" s="7">
-        <v>2</v>
-      </c>
-      <c r="F58" s="7">
-        <v>2001</v>
+      <c r="E58" s="9">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1002</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>26</v>
+        <v>71</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>38</v>
@@ -8748,27 +8764,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="5">
-        <v>30030004</v>
+    <row r="59" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="7">
+        <v>30000202</v>
       </c>
       <c r="D59" s="7">
         <v>3</v>
       </c>
       <c r="E59" s="9">
-        <v>2</v>
-      </c>
-      <c r="F59" s="9">
-        <v>2002</v>
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
+        <v>1004</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>24</v>
+        <v>72</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -8776,24 +8792,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="5">
-        <v>30030005</v>
+    <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="7">
+        <v>30000203</v>
       </c>
       <c r="D60" s="7">
         <v>3</v>
       </c>
       <c r="E60" s="9">
-        <v>1</v>
-      </c>
-      <c r="F60" s="9">
-        <v>1001</v>
+        <v>2</v>
+      </c>
+      <c r="F60" s="7">
+        <v>2001</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>27</v>
+        <v>73</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>38</v>
@@ -8804,24 +8820,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="7">
-        <v>30030006</v>
+        <v>30000204</v>
       </c>
       <c r="D61" s="7">
         <v>3</v>
       </c>
       <c r="E61" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" s="9">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>28</v>
+        <v>74</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>38</v>
@@ -8832,24 +8848,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="3:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="5">
-        <v>30030007</v>
+    <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="7">
+        <v>30000205</v>
       </c>
       <c r="D62" s="7">
         <v>3</v>
       </c>
       <c r="E62" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62" s="9">
-        <v>3002</v>
+        <v>1001</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>29</v>
+        <v>75</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>38</v>
@@ -8861,26 +8877,26 @@
       </c>
     </row>
     <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="5">
-        <v>30030008</v>
+      <c r="C63" s="7">
+        <v>30000206</v>
       </c>
       <c r="D63" s="7">
         <v>3</v>
       </c>
       <c r="E63" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" s="9">
-        <v>1003</v>
+        <v>3001</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>30</v>
+        <v>76</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -8890,22 +8906,22 @@
     </row>
     <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="7">
-        <v>30030009</v>
+        <v>30000207</v>
       </c>
       <c r="D64" s="7">
         <v>3</v>
       </c>
       <c r="E64" s="9">
-        <v>1</v>
-      </c>
-      <c r="F64" s="6">
-        <v>1002</v>
+        <v>3</v>
+      </c>
+      <c r="F64" s="9">
+        <v>3002</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>38</v>
@@ -8918,7 +8934,7 @@
     </row>
     <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="7">
-        <v>30000101</v>
+        <v>30000208</v>
       </c>
       <c r="D65" s="7">
         <v>3</v>
@@ -8926,17 +8942,17 @@
       <c r="E65" s="9">
         <v>1</v>
       </c>
-      <c r="F65" s="6">
-        <v>1002</v>
+      <c r="F65" s="9">
+        <v>1003</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -8944,425 +8960,185 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="7">
-        <v>30000102</v>
-      </c>
-      <c r="D66" s="7">
-        <v>3</v>
-      </c>
-      <c r="E66" s="9">
-        <v>1</v>
-      </c>
-      <c r="F66" s="6">
-        <v>1004</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="7">
-        <v>30000103</v>
-      </c>
-      <c r="D67" s="7">
-        <v>3</v>
-      </c>
-      <c r="E67" s="9">
-        <v>2</v>
-      </c>
-      <c r="F67" s="7">
-        <v>2001</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="7">
-        <v>30000104</v>
-      </c>
-      <c r="D68" s="7">
-        <v>3</v>
-      </c>
-      <c r="E68" s="9">
-        <v>2</v>
-      </c>
-      <c r="F68" s="9">
-        <v>2002</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="7">
-        <v>30000105</v>
-      </c>
-      <c r="D69" s="7">
-        <v>3</v>
-      </c>
-      <c r="E69" s="9">
-        <v>1</v>
-      </c>
-      <c r="F69" s="9">
-        <v>1001</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="7">
-        <v>30000106</v>
-      </c>
-      <c r="D70" s="7">
-        <v>3</v>
-      </c>
-      <c r="E70" s="9">
-        <v>3</v>
-      </c>
-      <c r="F70" s="9">
-        <v>3001</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="7">
-        <v>30000107</v>
-      </c>
-      <c r="D71" s="7">
-        <v>3</v>
-      </c>
-      <c r="E71" s="9">
-        <v>3</v>
-      </c>
-      <c r="F71" s="9">
-        <v>3002</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="7">
-        <v>30000108</v>
-      </c>
-      <c r="D72" s="7">
-        <v>3</v>
-      </c>
-      <c r="E72" s="9">
-        <v>1</v>
-      </c>
-      <c r="F72" s="9">
-        <v>1003</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="7">
-        <v>30000201</v>
-      </c>
-      <c r="D73" s="7">
-        <v>3</v>
-      </c>
-      <c r="E73" s="9">
-        <v>1</v>
-      </c>
-      <c r="F73" s="6">
-        <v>1002</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="7">
-        <v>30000202</v>
-      </c>
-      <c r="D74" s="7">
-        <v>3</v>
-      </c>
-      <c r="E74" s="9">
-        <v>1</v>
-      </c>
-      <c r="F74" s="6">
-        <v>1004</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="7">
-        <v>30000203</v>
-      </c>
-      <c r="D75" s="7">
-        <v>3</v>
-      </c>
-      <c r="E75" s="9">
-        <v>2</v>
-      </c>
-      <c r="F75" s="7">
-        <v>2001</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="7">
-        <v>30000204</v>
-      </c>
-      <c r="D76" s="7">
-        <v>3</v>
-      </c>
-      <c r="E76" s="9">
-        <v>2</v>
-      </c>
-      <c r="F76" s="9">
-        <v>2002</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="7">
-        <v>30000205</v>
-      </c>
-      <c r="D77" s="7">
-        <v>3</v>
-      </c>
-      <c r="E77" s="9">
-        <v>1</v>
-      </c>
-      <c r="F77" s="9">
-        <v>1001</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="7">
-        <v>30000206</v>
-      </c>
-      <c r="D78" s="7">
-        <v>3</v>
-      </c>
-      <c r="E78" s="9">
-        <v>3</v>
-      </c>
-      <c r="F78" s="9">
-        <v>3001</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="7">
-        <v>30000207</v>
-      </c>
-      <c r="D79" s="7">
-        <v>3</v>
-      </c>
-      <c r="E79" s="9">
-        <v>3</v>
-      </c>
-      <c r="F79" s="9">
-        <v>3002</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="7">
-        <v>30000208</v>
-      </c>
-      <c r="D80" s="7">
-        <v>3</v>
-      </c>
-      <c r="E80" s="9">
-        <v>1</v>
-      </c>
-      <c r="F80" s="9">
-        <v>1003</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6" t="s">
-        <v>36</v>
-      </c>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="6"/>
     </row>
     <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="7"/>
@@ -10708,7 +10484,7 @@
       <c r="K192" s="7"/>
       <c r="L192" s="6"/>
     </row>
-    <row r="193" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -10718,9 +10494,8 @@
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
-      <c r="L193" s="6"/>
-    </row>
-    <row r="194" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -10730,9 +10505,8 @@
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
-      <c r="L194" s="6"/>
-    </row>
-    <row r="195" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -10742,9 +10516,8 @@
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
-      <c r="L195" s="6"/>
-    </row>
-    <row r="196" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -10754,9 +10527,8 @@
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
-      <c r="L196" s="6"/>
-    </row>
-    <row r="197" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -10766,9 +10538,8 @@
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
-      <c r="L197" s="6"/>
-    </row>
-    <row r="198" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -10778,9 +10549,8 @@
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
-      <c r="L198" s="6"/>
-    </row>
-    <row r="199" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -10790,9 +10560,8 @@
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
-      <c r="L199" s="6"/>
-    </row>
-    <row r="200" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -10802,9 +10571,8 @@
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
-      <c r="L200" s="6"/>
-    </row>
-    <row r="201" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -10814,9 +10582,8 @@
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
-      <c r="L201" s="6"/>
-    </row>
-    <row r="202" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -10826,9 +10593,8 @@
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
-      <c r="L202" s="6"/>
-    </row>
-    <row r="203" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -10838,9 +10604,8 @@
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
-      <c r="L203" s="6"/>
-    </row>
-    <row r="204" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -10850,9 +10615,8 @@
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
-      <c r="L204" s="6"/>
-    </row>
-    <row r="205" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -10862,9 +10626,8 @@
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
-      <c r="L205" s="6"/>
-    </row>
-    <row r="206" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -10874,9 +10637,8 @@
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
-      <c r="L206" s="6"/>
-    </row>
-    <row r="207" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -10886,9 +10648,8 @@
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
-      <c r="L207" s="6"/>
-    </row>
-    <row r="208" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -13814,171 +13575,6 @@
       <c r="J473" s="7"/>
       <c r="K473" s="7"/>
     </row>
-    <row r="474" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C474" s="7"/>
-      <c r="D474" s="7"/>
-      <c r="E474" s="7"/>
-      <c r="F474" s="7"/>
-      <c r="G474" s="7"/>
-      <c r="H474" s="7"/>
-      <c r="I474" s="7"/>
-      <c r="J474" s="7"/>
-      <c r="K474" s="7"/>
-    </row>
-    <row r="475" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C475" s="7"/>
-      <c r="D475" s="7"/>
-      <c r="E475" s="7"/>
-      <c r="F475" s="7"/>
-      <c r="G475" s="7"/>
-      <c r="H475" s="7"/>
-      <c r="I475" s="7"/>
-      <c r="J475" s="7"/>
-      <c r="K475" s="7"/>
-    </row>
-    <row r="476" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C476" s="7"/>
-      <c r="D476" s="7"/>
-      <c r="E476" s="7"/>
-      <c r="F476" s="7"/>
-      <c r="G476" s="7"/>
-      <c r="H476" s="7"/>
-      <c r="I476" s="7"/>
-      <c r="J476" s="7"/>
-      <c r="K476" s="7"/>
-    </row>
-    <row r="477" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C477" s="7"/>
-      <c r="D477" s="7"/>
-      <c r="E477" s="7"/>
-      <c r="F477" s="7"/>
-      <c r="G477" s="7"/>
-      <c r="H477" s="7"/>
-      <c r="I477" s="7"/>
-      <c r="J477" s="7"/>
-      <c r="K477" s="7"/>
-    </row>
-    <row r="478" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C478" s="7"/>
-      <c r="D478" s="7"/>
-      <c r="E478" s="7"/>
-      <c r="F478" s="7"/>
-      <c r="G478" s="7"/>
-      <c r="H478" s="7"/>
-      <c r="I478" s="7"/>
-      <c r="J478" s="7"/>
-      <c r="K478" s="7"/>
-    </row>
-    <row r="479" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C479" s="7"/>
-      <c r="D479" s="7"/>
-      <c r="E479" s="7"/>
-      <c r="F479" s="7"/>
-      <c r="G479" s="7"/>
-      <c r="H479" s="7"/>
-      <c r="I479" s="7"/>
-      <c r="J479" s="7"/>
-      <c r="K479" s="7"/>
-    </row>
-    <row r="480" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C480" s="7"/>
-      <c r="D480" s="7"/>
-      <c r="E480" s="7"/>
-      <c r="F480" s="7"/>
-      <c r="G480" s="7"/>
-      <c r="H480" s="7"/>
-      <c r="I480" s="7"/>
-      <c r="J480" s="7"/>
-      <c r="K480" s="7"/>
-    </row>
-    <row r="481" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C481" s="7"/>
-      <c r="D481" s="7"/>
-      <c r="E481" s="7"/>
-      <c r="F481" s="7"/>
-      <c r="G481" s="7"/>
-      <c r="H481" s="7"/>
-      <c r="I481" s="7"/>
-      <c r="J481" s="7"/>
-      <c r="K481" s="7"/>
-    </row>
-    <row r="482" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C482" s="7"/>
-      <c r="D482" s="7"/>
-      <c r="E482" s="7"/>
-      <c r="F482" s="7"/>
-      <c r="G482" s="7"/>
-      <c r="H482" s="7"/>
-      <c r="I482" s="7"/>
-      <c r="J482" s="7"/>
-      <c r="K482" s="7"/>
-    </row>
-    <row r="483" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C483" s="7"/>
-      <c r="D483" s="7"/>
-      <c r="E483" s="7"/>
-      <c r="F483" s="7"/>
-      <c r="G483" s="7"/>
-      <c r="H483" s="7"/>
-      <c r="I483" s="7"/>
-      <c r="J483" s="7"/>
-      <c r="K483" s="7"/>
-    </row>
-    <row r="484" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C484" s="7"/>
-      <c r="D484" s="7"/>
-      <c r="E484" s="7"/>
-      <c r="F484" s="7"/>
-      <c r="G484" s="7"/>
-      <c r="H484" s="7"/>
-      <c r="I484" s="7"/>
-      <c r="J484" s="7"/>
-      <c r="K484" s="7"/>
-    </row>
-    <row r="485" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C485" s="7"/>
-      <c r="D485" s="7"/>
-      <c r="E485" s="7"/>
-      <c r="F485" s="7"/>
-      <c r="G485" s="7"/>
-      <c r="H485" s="7"/>
-      <c r="I485" s="7"/>
-      <c r="J485" s="7"/>
-      <c r="K485" s="7"/>
-    </row>
-    <row r="486" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C486" s="7"/>
-      <c r="D486" s="7"/>
-      <c r="E486" s="7"/>
-      <c r="F486" s="7"/>
-      <c r="G486" s="7"/>
-      <c r="H486" s="7"/>
-      <c r="I486" s="7"/>
-      <c r="J486" s="7"/>
-      <c r="K486" s="7"/>
-    </row>
-    <row r="487" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C487" s="7"/>
-      <c r="D487" s="7"/>
-      <c r="E487" s="7"/>
-      <c r="F487" s="7"/>
-      <c r="G487" s="7"/>
-      <c r="H487" s="7"/>
-      <c r="I487" s="7"/>
-      <c r="J487" s="7"/>
-      <c r="K487" s="7"/>
-    </row>
-    <row r="488" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C488" s="7"/>
-      <c r="D488" s="7"/>
-      <c r="E488" s="7"/>
-      <c r="F488" s="7"/>
-      <c r="G488" s="7"/>
-      <c r="H488" s="7"/>
-      <c r="I488" s="7"/>
-      <c r="J488" s="7"/>
-      <c r="K488" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -264,7 +264,7 @@
     <t>测试-衣服</t>
   </si>
   <si>
-    <t>zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi@zhanshi_1_pifeng</t>
+    <t>zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi</t>
   </si>
   <si>
     <t>女巫:脸</t>
@@ -554,12 +554,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7218,7 +7218,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{CF9EF1B1-3CC4-4DF5-ACE0-71216416D537}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{5BF9BF6E-30E2-4496-9285-09B39C33CF86}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -7523,7 +7523,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13939,7 +13939,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H23" r:id="rId3" display="zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian"/>
-    <hyperlink ref="H24" r:id="rId4" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi@zhanshi_1_pifeng" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi@zhanshi_1_pifeng"/>
+    <hyperlink ref="H24" r:id="rId4" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7EF520-99AC-4D44-ABB7-9A0E5E3EEE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939C5E4F-E470-404B-9BF6-09D0861FADE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -176,13 +176,7 @@
     <t>double[]</t>
   </si>
   <si>
-    <t>zhanshi_1_toufa</t>
-  </si>
-  <si>
     <t>10000159;20</t>
-  </si>
-  <si>
-    <t>0,130,175,45</t>
   </si>
   <si>
     <t>zhanshi_2_toufa</t>
@@ -221,40 +215,138 @@
     <t>fashi_2_shangyi@fashi_2_xiayi@fashi_2_xiezi</t>
   </si>
   <si>
-    <t>骑士：发饰</t>
+    <t>0,58,175,35</t>
   </si>
   <si>
-    <t>骑士：脸</t>
+    <t>0,5,175,45</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>骑士：服饰</t>
+    <t>蓝色发饰</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>爵士：发饰</t>
+    <t>zhanshi_1_toufa</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>爵士：脸</t>
+    <t>蓝色服饰</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>爵士：服饰</t>
+    <t>zhanshi_101_pifeng@zhanshi_101_shangyi@zhanshi_101_xiayi@zhanshi_101_xiezi</t>
   </si>
   <si>
-    <t>女巫：发饰</t>
+    <t>蓝色头发</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>女巫：脸</t>
+    <t>橘色外衣</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>女巫：服饰</t>
+    <t>0,40,175,55</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>神圣：发饰</t>
+    <t>fashi_1_fashi2@fashi_101_toufa</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>神圣：脸</t>
+    <t>0,30,175,55</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>神圣：服饰</t>
+    <t>fashi_101_shangyi@fashi_101_xiayi@fashi_101_xiezi@fashi_101_pifu1@@fashi_101_pifu2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_101_toufa</t>
+  </si>
+  <si>
+    <t>绿色发饰</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫的魔法帽</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣祭祀发饰</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫的魔法衣</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣祭祀圣衣</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫之睛</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣之睛</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_toufa</t>
+  </si>
+  <si>
+    <t>Hero_meimao@Hero_yanjing@Hero_lian</t>
+  </si>
+  <si>
+    <t>海洋之睛</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士之睛</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓越守护之服</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓越守护之发</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色骑士之服</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_pifeng@Hero_shangyi@Hero_xiashen@Hero_xiezi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_fashi2@Hero_toufa</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_lian@Hero_meimao@Hero_yanjing</t>
+  </si>
+  <si>
+    <t>Hero_shangyi@Hero_xiashen@Hero_xiezi@Hero_pifu1@@Hero_pifu2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始发饰</t>
+  </si>
+  <si>
+    <t>原始眼睛</t>
+  </si>
+  <si>
+    <t>原始服饰</t>
+  </si>
+  <si>
+    <t>原始头发</t>
+  </si>
+  <si>
+    <t>Hero_toufa@Hero_fashi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6862,11 +6954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L384"/>
+  <dimension ref="C1:L394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6876,7 +6968,7 @@
     <col min="5" max="5" width="21.375" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="64.625" customWidth="1"/>
+    <col min="8" max="8" width="70" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="17.875" customWidth="1"/>
     <col min="11" max="11" width="23.75" customWidth="1"/>
@@ -6986,7 +7078,7 @@
     </row>
     <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5">
-        <v>10000101</v>
+        <v>10001000</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -6998,79 +7090,79 @@
         <v>1001</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5">
-        <v>10000102</v>
+        <v>10001010</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2001</v>
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1001</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5">
-        <v>10000103</v>
+        <v>10001020</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="6">
-        <v>3</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3001</v>
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1001</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5">
-        <v>10000201</v>
+        <v>10001030</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -7082,23 +7174,23 @@
         <v>1001</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="5">
-        <v>10000202</v>
+        <v>10002000</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -7110,110 +7202,110 @@
         <v>2001</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5">
-        <v>10000203</v>
+        <v>10002010</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="6">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5">
-        <v>20000101</v>
+        <v>10002020</v>
       </c>
       <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1001</v>
+      <c r="F12" s="6">
+        <v>2001</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="5">
-        <v>20000102</v>
+        <v>10003000</v>
       </c>
       <c r="D13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="6">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7" t="s">
-        <v>26</v>
+      <c r="L13" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5">
-        <v>20000103</v>
+        <v>10003010</v>
       </c>
       <c r="D14" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="6">
         <v>3</v>
@@ -7222,110 +7314,110 @@
         <v>3001</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7" t="s">
-        <v>26</v>
+      <c r="L14" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5">
-        <v>20000201</v>
+        <v>10003020</v>
       </c>
       <c r="D15" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1001</v>
+        <v>3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3001</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>35</v>
+        <v>62</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="7" t="s">
-        <v>26</v>
+      <c r="L15" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="5">
-        <v>20000202</v>
+        <v>10003030</v>
       </c>
       <c r="D16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="6">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="7" t="s">
-        <v>26</v>
+      <c r="L16" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5">
-        <v>20000203</v>
+        <v>20001000</v>
       </c>
       <c r="D17" s="5">
         <v>2</v>
       </c>
       <c r="E17" s="6">
-        <v>3</v>
-      </c>
-      <c r="F17" s="6">
-        <v>3001</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1001</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="7" t="s">
-        <v>26</v>
+      <c r="L17" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5">
-        <v>30000101</v>
+        <v>20001010</v>
       </c>
       <c r="D18" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -7334,110 +7426,110 @@
         <v>1001</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="7" t="s">
-        <v>26</v>
+      <c r="L18" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="5">
-        <v>30000102</v>
+        <v>20001020</v>
       </c>
       <c r="D19" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="6">
-        <v>2</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2001</v>
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1001</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="7" t="s">
-        <v>26</v>
+      <c r="L19" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="5">
-        <v>30000103</v>
+        <v>20001030</v>
       </c>
       <c r="D20" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="6">
-        <v>3</v>
-      </c>
-      <c r="F20" s="6">
-        <v>3001</v>
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1001</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="7" t="s">
-        <v>26</v>
+      <c r="L20" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5">
-        <v>30000201</v>
+        <v>20002000</v>
       </c>
       <c r="D21" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1001</v>
+        <v>2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2001</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>27</v>
+        <v>68</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="5">
-        <v>30000202</v>
+        <v>20002010</v>
       </c>
       <c r="D22" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="6">
         <v>2</v>
@@ -7446,227 +7538,467 @@
         <v>2001</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5">
-        <v>30000203</v>
+        <v>20002020</v>
       </c>
       <c r="D23" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="6">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="5">
+        <v>20003000</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="5">
+        <v>20003010</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="5">
+        <v>20003020</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>3</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="5">
+        <v>20003030</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="5">
+        <v>30001000</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1001</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="5">
+        <v>30001010</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1001</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="5">
+        <v>30001020</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1001</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="5">
+        <v>30001030</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1001</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="5">
+        <v>30002000</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2</v>
+      </c>
+      <c r="F32" s="6">
+        <v>2001</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="5">
+        <v>30002010</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>2001</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="7"/>
+      <c r="I33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="5">
+        <v>30002020</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3</v>
+      </c>
+      <c r="E34" s="6">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6">
+        <v>2001</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="5">
+        <v>30003000</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3</v>
+      </c>
+      <c r="E35" s="6">
+        <v>3</v>
+      </c>
+      <c r="F35" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="5">
+        <v>30003010</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3</v>
+      </c>
+      <c r="E36" s="6">
+        <v>3</v>
+      </c>
+      <c r="F36" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="5">
+        <v>30003020</v>
+      </c>
+      <c r="D37" s="5">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6">
+        <v>3</v>
+      </c>
+      <c r="F37" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="5">
+        <v>30003030</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3</v>
+      </c>
+      <c r="F38" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
@@ -8458,6 +8790,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
+      <c r="L104" s="7"/>
     </row>
     <row r="105" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
@@ -8469,6 +8802,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
+      <c r="L105" s="7"/>
     </row>
     <row r="106" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
@@ -8480,6 +8814,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
+      <c r="L106" s="7"/>
     </row>
     <row r="107" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
@@ -8491,6 +8826,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
+      <c r="L107" s="7"/>
     </row>
     <row r="108" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C108" s="5"/>
@@ -8502,6 +8838,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
+      <c r="L108" s="7"/>
     </row>
     <row r="109" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C109" s="5"/>
@@ -8513,6 +8850,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
+      <c r="L109" s="7"/>
     </row>
     <row r="110" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C110" s="5"/>
@@ -8524,6 +8862,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
+      <c r="L110" s="7"/>
     </row>
     <row r="111" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
@@ -8535,6 +8874,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
+      <c r="L111" s="7"/>
     </row>
     <row r="112" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C112" s="5"/>
@@ -8546,8 +8886,9 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-    </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L112" s="7"/>
+    </row>
+    <row r="113" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -8557,8 +8898,9 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-    </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L113" s="7"/>
+    </row>
+    <row r="114" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -8569,7 +8911,7 @@
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -8580,7 +8922,7 @@
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -8591,7 +8933,7 @@
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -8602,7 +8944,7 @@
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
     </row>
-    <row r="118" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -8613,7 +8955,7 @@
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -8624,7 +8966,7 @@
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -8635,7 +8977,7 @@
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -8646,7 +8988,7 @@
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -8657,7 +8999,7 @@
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -8668,7 +9010,7 @@
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -8679,7 +9021,7 @@
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -8690,7 +9032,7 @@
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -8701,7 +9043,7 @@
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -8712,7 +9054,7 @@
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -11539,24 +11881,143 @@
       <c r="J384" s="5"/>
       <c r="K384" s="5"/>
     </row>
+    <row r="385" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C385" s="5"/>
+      <c r="D385" s="5"/>
+      <c r="E385" s="5"/>
+      <c r="F385" s="5"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5"/>
+      <c r="I385" s="5"/>
+      <c r="J385" s="5"/>
+      <c r="K385" s="5"/>
+    </row>
+    <row r="386" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C386" s="5"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+      <c r="G386" s="5"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="5"/>
+      <c r="J386" s="5"/>
+      <c r="K386" s="5"/>
+    </row>
+    <row r="387" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C387" s="5"/>
+      <c r="D387" s="5"/>
+      <c r="E387" s="5"/>
+      <c r="F387" s="5"/>
+      <c r="G387" s="5"/>
+      <c r="H387" s="5"/>
+      <c r="I387" s="5"/>
+      <c r="J387" s="5"/>
+      <c r="K387" s="5"/>
+    </row>
+    <row r="388" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C388" s="5"/>
+      <c r="D388" s="5"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="5"/>
+      <c r="G388" s="5"/>
+      <c r="H388" s="5"/>
+      <c r="I388" s="5"/>
+      <c r="J388" s="5"/>
+      <c r="K388" s="5"/>
+    </row>
+    <row r="389" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C389" s="5"/>
+      <c r="D389" s="5"/>
+      <c r="E389" s="5"/>
+      <c r="F389" s="5"/>
+      <c r="G389" s="5"/>
+      <c r="H389" s="5"/>
+      <c r="I389" s="5"/>
+      <c r="J389" s="5"/>
+      <c r="K389" s="5"/>
+    </row>
+    <row r="390" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C390" s="5"/>
+      <c r="D390" s="5"/>
+      <c r="E390" s="5"/>
+      <c r="F390" s="5"/>
+      <c r="G390" s="5"/>
+      <c r="H390" s="5"/>
+      <c r="I390" s="5"/>
+      <c r="J390" s="5"/>
+      <c r="K390" s="5"/>
+    </row>
+    <row r="391" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C391" s="5"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="5"/>
+      <c r="F391" s="5"/>
+      <c r="G391" s="5"/>
+      <c r="H391" s="5"/>
+      <c r="I391" s="5"/>
+      <c r="J391" s="5"/>
+      <c r="K391" s="5"/>
+    </row>
+    <row r="392" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C392" s="5"/>
+      <c r="D392" s="5"/>
+      <c r="E392" s="5"/>
+      <c r="F392" s="5"/>
+      <c r="G392" s="5"/>
+      <c r="H392" s="5"/>
+      <c r="I392" s="5"/>
+      <c r="J392" s="5"/>
+      <c r="K392" s="5"/>
+    </row>
+    <row r="393" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C393" s="5"/>
+      <c r="D393" s="5"/>
+      <c r="E393" s="5"/>
+      <c r="F393" s="5"/>
+      <c r="G393" s="5"/>
+      <c r="H393" s="5"/>
+      <c r="I393" s="5"/>
+      <c r="J393" s="5"/>
+      <c r="K393" s="5"/>
+    </row>
+    <row r="394" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C394" s="5"/>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="5"/>
+      <c r="G394" s="5"/>
+      <c r="H394" s="5"/>
+      <c r="I394" s="5"/>
+      <c r="J394" s="5"/>
+      <c r="K394" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H10" r:id="rId2" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{1C64D655-5D40-466D-A8B2-6786D756C904}"/>
-    <hyperlink ref="H11" r:id="rId3" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{8986901F-7FA4-4130-B2B0-A5ACDB05E10A}"/>
-    <hyperlink ref="H7" r:id="rId4" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H14" r:id="rId5" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{66EF860A-C4F6-4A4B-A26E-C6FA223DA7C3}"/>
-    <hyperlink ref="H13" r:id="rId6" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{005925AB-73BA-46A0-869D-E48BC153C42C}"/>
-    <hyperlink ref="H17" r:id="rId7" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{ED4F375C-3A13-438C-9A11-F2428039CB62}"/>
-    <hyperlink ref="H16" r:id="rId8" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{D352768D-178F-437E-AF41-A885BF2C54CA}"/>
-    <hyperlink ref="H20" r:id="rId9" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{23D0DE07-ACCD-45AE-BE7C-DB938BBF6775}"/>
-    <hyperlink ref="H22" r:id="rId10" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{2406E8CA-49EF-4FBD-85F7-354AF30BAEF8}"/>
-    <hyperlink ref="H23" r:id="rId11" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{6543E94F-4DA5-48B9-94E7-DD900F40FF9D}"/>
-    <hyperlink ref="H19" r:id="rId12" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{3883DC93-33D4-44A6-9D15-225389036C04}"/>
+    <hyperlink ref="H15" r:id="rId1" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H12" r:id="rId2" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{1C64D655-5D40-466D-A8B2-6786D756C904}"/>
+    <hyperlink ref="H16" r:id="rId3" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{8986901F-7FA4-4130-B2B0-A5ACDB05E10A}"/>
+    <hyperlink ref="H11" r:id="rId4" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H26" r:id="rId5" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{66EF860A-C4F6-4A4B-A26E-C6FA223DA7C3}"/>
+    <hyperlink ref="H22" r:id="rId6" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{005925AB-73BA-46A0-869D-E48BC153C42C}"/>
+    <hyperlink ref="H27" r:id="rId7" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{ED4F375C-3A13-438C-9A11-F2428039CB62}"/>
+    <hyperlink ref="H23" r:id="rId8" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{D352768D-178F-437E-AF41-A885BF2C54CA}"/>
+    <hyperlink ref="H14" r:id="rId9" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{6415838E-306C-4605-8E56-42A68BB46416}"/>
+    <hyperlink ref="H25" r:id="rId10" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{C64C4E98-BFA9-495D-9947-CCAEE15F1568}"/>
+    <hyperlink ref="H10" r:id="rId11" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{45D5BC46-8497-4D85-ACF1-0594CBD354A5}"/>
+    <hyperlink ref="H13" r:id="rId12" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{50323D56-477A-4759-857D-B7445076021B}"/>
+    <hyperlink ref="H37" r:id="rId13" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{05633290-395D-46B8-9391-9D7EAE376D55}"/>
+    <hyperlink ref="H34" r:id="rId14" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{98F335E6-0BD7-476F-9621-1D649BF84C0E}"/>
+    <hyperlink ref="H38" r:id="rId15" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{A7FFC951-D378-498E-92C0-5C1FB84C831A}"/>
+    <hyperlink ref="H33" r:id="rId16" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{8957C361-7506-4CF5-8B90-0B6A8B411DA0}"/>
+    <hyperlink ref="H36" r:id="rId17" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{E487B543-1C20-4918-8B13-95BE87A3FA6F}"/>
+    <hyperlink ref="H32" r:id="rId18" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{975CBC76-B9B6-4670-8F84-B07171657380}"/>
+    <hyperlink ref="H35" r:id="rId19" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{6E145B2D-93A3-4783-B48F-D3F988EFC3E5}"/>
+    <hyperlink ref="H21" r:id="rId20" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{10DF3AD2-FDA8-4C5E-A5A8-C3B32CE455F2}"/>
+    <hyperlink ref="H24" r:id="rId21" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{9BB45DE9-1A87-4610-B7B9-EAE4489913AC}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId13"/>
+  <legacyDrawing r:id="rId22"/>
 </worksheet>
 </file>
--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939C5E4F-E470-404B-9BF6-09D0861FADE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8577415B-FB3F-4E00-B46E-418E2ED47205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -41,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,6 +60,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -66,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -82,6 +86,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -90,6 +95,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -102,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="76">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -348,6 +354,22 @@
     <t>Hero_toufa@Hero_fashi</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>zhanshi_101_shangyi@zhanshi_101_xiayi@zhanshi_101_xiezi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_2_shangyi@zhanshi_2_xiayi@zhanshi_2_xiezi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_shangyi@Hero_xiashen@Hero_xiezi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -364,6 +386,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -371,12 +394,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -384,6 +409,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -391,6 +417,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -398,12 +425,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -411,11 +440,13 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6958,7 +6989,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7904,8 +7935,8 @@
       <c r="G35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>63</v>
+      <c r="H35" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>24</v>
@@ -7932,8 +7963,8 @@
       <c r="G36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>41</v>
+      <c r="H36" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>24</v>
@@ -7961,7 +7992,7 @@
         <v>62</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>24</v>
@@ -7989,7 +8020,7 @@
         <v>60</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>24</v>
@@ -12006,7 +12037,7 @@
     <hyperlink ref="H25" r:id="rId10" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{C64C4E98-BFA9-495D-9947-CCAEE15F1568}"/>
     <hyperlink ref="H10" r:id="rId11" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{45D5BC46-8497-4D85-ACF1-0594CBD354A5}"/>
     <hyperlink ref="H13" r:id="rId12" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{50323D56-477A-4759-857D-B7445076021B}"/>
-    <hyperlink ref="H37" r:id="rId13" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{05633290-395D-46B8-9391-9D7EAE376D55}"/>
+    <hyperlink ref="H37" r:id="rId13" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{05633290-395D-46B8-9391-9D7EAE376D55}"/>
     <hyperlink ref="H34" r:id="rId14" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{98F335E6-0BD7-476F-9621-1D649BF84C0E}"/>
     <hyperlink ref="H38" r:id="rId15" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{A7FFC951-D378-498E-92C0-5C1FB84C831A}"/>
     <hyperlink ref="H33" r:id="rId16" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{8957C361-7506-4CF5-8B90-0B6A8B411DA0}"/>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8577415B-FB3F-4E00-B46E-418E2ED47205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1F04F8-1AC4-4AC5-BFF5-3A49D8B70D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,10 +328,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Hero_fashi2@Hero_toufa</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Hero_lian@Hero_meimao@Hero_yanjing</t>
   </si>
   <si>
@@ -368,6 +364,10 @@
   </si>
   <si>
     <t>Hero_shangyi@Hero_xiashen@Hero_xiezi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_fashi@Hero_fashi2@Hero_toufa</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -6988,8 +6988,8 @@
   <dimension ref="C1:L394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7121,7 +7121,7 @@
         <v>1001</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>56</v>
@@ -7233,7 +7233,7 @@
         <v>2001</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>57</v>
@@ -7317,7 +7317,7 @@
         <v>3001</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>63</v>
@@ -7429,10 +7429,10 @@
         <v>1001</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>24</v>
@@ -7541,10 +7541,10 @@
         <v>2001</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>24</v>
@@ -7625,10 +7625,10 @@
         <v>3001</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>24</v>
@@ -7737,10 +7737,10 @@
         <v>1001</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>24</v>
@@ -7849,7 +7849,7 @@
         <v>2001</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>57</v>
@@ -7933,10 +7933,10 @@
         <v>3001</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>24</v>
@@ -7964,7 +7964,7 @@
         <v>40</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>24</v>
@@ -7992,7 +7992,7 @@
         <v>62</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>24</v>
@@ -8020,7 +8020,7 @@
         <v>60</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>24</v>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1F04F8-1AC4-4AC5-BFF5-3A49D8B70D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0646112-5F3E-4008-84E8-2CC7AA430905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FashionProto" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="93">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -182,9 +182,6 @@
     <t>double[]</t>
   </si>
   <si>
-    <t>10000159;20</t>
-  </si>
-  <si>
     <t>zhanshi_2_toufa</t>
   </si>
   <si>
@@ -225,10 +222,6 @@
   </si>
   <si>
     <t>0,5,175,45</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色发饰</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -368,6 +361,77 @@
   </si>
   <si>
     <t>Hero_fashi@Hero_fashi2@Hero_toufa</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000176;1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色骑士发饰</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装描述</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyDes</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000160;20</t>
+  </si>
+  <si>
+    <t>10000160;80</t>
+  </si>
+  <si>
+    <t>10000160;30</t>
+  </si>
+  <si>
+    <t>10000160;50</t>
+  </si>
+  <si>
+    <t>10000160;120</t>
+  </si>
+  <si>
+    <t>伤害加成提升5%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免提升5%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率提升2%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率提升1%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免提升3%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成提升3%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性概率提升2%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中概率提升2%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000177;1</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -6985,11 +7049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L394"/>
+  <dimension ref="C1:M394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7004,14 +7068,15 @@
     <col min="10" max="10" width="17.875" customWidth="1"/>
     <col min="11" max="11" width="23.75" customWidth="1"/>
     <col min="12" max="12" width="16.625" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7042,8 +7107,11 @@
       <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -7074,8 +7142,11 @@
       <c r="L4" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
@@ -7106,8 +7177,11 @@
       <c r="L5" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5">
         <v>10001000</v>
       </c>
@@ -7121,21 +7195,22 @@
         <v>1001</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5">
         <v>10001010</v>
       </c>
@@ -7149,21 +7224,28 @@
         <v>1001</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="J7" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K7" s="7">
+        <v>10000</v>
+      </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5">
         <v>10001020</v>
       </c>
@@ -7176,22 +7258,29 @@
       <c r="F8" s="7">
         <v>1001</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>38</v>
+      <c r="G8" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="J8" s="7">
+        <v>201003</v>
+      </c>
+      <c r="K8" s="7">
+        <v>30000</v>
+      </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5">
         <v>10001030</v>
       </c>
@@ -7205,21 +7294,28 @@
         <v>1001</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="J9" s="7">
+        <v>201003</v>
+      </c>
+      <c r="K9" s="7">
+        <v>50000</v>
+      </c>
       <c r="L9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="5">
         <v>10002000</v>
       </c>
@@ -7233,21 +7329,22 @@
         <v>2001</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5">
         <v>10002010</v>
       </c>
@@ -7261,21 +7358,28 @@
         <v>2001</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="J11" s="7">
+        <v>200403</v>
+      </c>
+      <c r="K11" s="7">
+        <v>20000</v>
+      </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5">
         <v>10002020</v>
       </c>
@@ -7289,21 +7393,28 @@
         <v>2001</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="J12" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K12" s="7">
+        <v>20000</v>
+      </c>
       <c r="L12" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="5">
         <v>10003000</v>
       </c>
@@ -7317,21 +7428,22 @@
         <v>3001</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5">
         <v>10003010</v>
       </c>
@@ -7345,21 +7457,28 @@
         <v>3001</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="J14" s="7">
+        <v>200203</v>
+      </c>
+      <c r="K14" s="7">
+        <v>20000</v>
+      </c>
       <c r="L14" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5">
         <v>10003020</v>
       </c>
@@ -7373,21 +7492,28 @@
         <v>3001</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="J15" s="7">
+        <v>200903</v>
+      </c>
+      <c r="K15" s="7">
+        <v>30000</v>
+      </c>
       <c r="L15" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="5">
         <v>10003030</v>
       </c>
@@ -7401,21 +7527,28 @@
         <v>3001</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="J16" s="7">
+        <v>200903</v>
+      </c>
+      <c r="K16" s="7">
+        <v>50000</v>
+      </c>
       <c r="L16" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5">
         <v>20001000</v>
       </c>
@@ -7429,21 +7562,22 @@
         <v>1001</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5">
         <v>20001010</v>
       </c>
@@ -7457,21 +7591,28 @@
         <v>1001</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="J18" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K18" s="7">
+        <v>10000</v>
+      </c>
       <c r="L18" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="5">
         <v>20001020</v>
       </c>
@@ -7485,21 +7626,28 @@
         <v>1001</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="J19" s="7">
+        <v>201003</v>
+      </c>
+      <c r="K19" s="7">
+        <v>30000</v>
+      </c>
       <c r="L19" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="5">
         <v>20001030</v>
       </c>
@@ -7513,21 +7661,28 @@
         <v>1001</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="J20" s="7">
+        <v>201003</v>
+      </c>
+      <c r="K20" s="7">
+        <v>50000</v>
+      </c>
       <c r="L20" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5">
         <v>20002000</v>
       </c>
@@ -7541,21 +7696,22 @@
         <v>2001</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="5">
         <v>20002010</v>
       </c>
@@ -7569,21 +7725,28 @@
         <v>2001</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="J22" s="7">
+        <v>200403</v>
+      </c>
+      <c r="K22" s="7">
+        <v>20000</v>
+      </c>
       <c r="L22" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5">
         <v>20002020</v>
       </c>
@@ -7597,21 +7760,28 @@
         <v>2001</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="J23" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K23" s="7">
+        <v>20000</v>
+      </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="5">
         <v>20003000</v>
       </c>
@@ -7625,21 +7795,22 @@
         <v>3001</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="5">
         <v>20003010</v>
       </c>
@@ -7653,21 +7824,28 @@
         <v>3001</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="J25" s="7">
+        <v>200203</v>
+      </c>
+      <c r="K25" s="7">
+        <v>20000</v>
+      </c>
       <c r="L25" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="5">
         <v>20003020</v>
       </c>
@@ -7681,21 +7859,28 @@
         <v>3001</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="J26" s="7">
+        <v>200903</v>
+      </c>
+      <c r="K26" s="7">
+        <v>30000</v>
+      </c>
       <c r="L26" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="5">
         <v>20003030</v>
       </c>
@@ -7709,21 +7894,28 @@
         <v>3001</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="J27" s="7">
+        <v>200903</v>
+      </c>
+      <c r="K27" s="7">
+        <v>50000</v>
+      </c>
       <c r="L27" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="5">
         <v>30001000</v>
       </c>
@@ -7737,21 +7929,22 @@
         <v>1001</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="5">
         <v>30001010</v>
       </c>
@@ -7765,21 +7958,28 @@
         <v>1001</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="J29" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K29" s="7">
+        <v>10000</v>
+      </c>
       <c r="L29" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="5">
         <v>30001020</v>
       </c>
@@ -7792,22 +7992,29 @@
       <c r="F30" s="7">
         <v>1001</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>38</v>
+      <c r="G30" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="J30" s="7">
+        <v>201003</v>
+      </c>
+      <c r="K30" s="7">
+        <v>30000</v>
+      </c>
       <c r="L30" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="5">
         <v>30001030</v>
       </c>
@@ -7821,21 +8028,28 @@
         <v>1001</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="J31" s="7">
+        <v>201003</v>
+      </c>
+      <c r="K31" s="7">
+        <v>50000</v>
+      </c>
       <c r="L31" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="5">
         <v>30002000</v>
       </c>
@@ -7849,21 +8063,22 @@
         <v>2001</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="5">
         <v>30002010</v>
       </c>
@@ -7877,21 +8092,28 @@
         <v>2001</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="J33" s="7">
+        <v>200403</v>
+      </c>
+      <c r="K33" s="7">
+        <v>20000</v>
+      </c>
       <c r="L33" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="5">
         <v>30002020</v>
       </c>
@@ -7905,21 +8127,28 @@
         <v>2001</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="J34" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K34" s="7">
+        <v>20000</v>
+      </c>
       <c r="L34" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="5">
         <v>30003000</v>
       </c>
@@ -7933,21 +8162,22 @@
         <v>3001</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="5">
         <v>30003010</v>
       </c>
@@ -7961,21 +8191,28 @@
         <v>3001</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="J36" s="7">
+        <v>200203</v>
+      </c>
+      <c r="K36" s="7">
+        <v>20000</v>
+      </c>
       <c r="L36" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="5">
         <v>30003020</v>
       </c>
@@ -7989,21 +8226,28 @@
         <v>3001</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="J37" s="7">
+        <v>200903</v>
+      </c>
+      <c r="K37" s="7">
+        <v>30000</v>
+      </c>
       <c r="L37" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="5">
         <v>30003030</v>
       </c>
@@ -8017,21 +8261,28 @@
         <v>3001</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="J38" s="7">
+        <v>200903</v>
+      </c>
+      <c r="K38" s="7">
+        <v>50000</v>
+      </c>
       <c r="L38" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -8042,8 +8293,9 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -8054,8 +8306,9 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -8066,8 +8319,9 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -8078,8 +8332,9 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -8090,8 +8345,9 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -8102,8 +8358,9 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -8114,8 +8371,9 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -8126,8 +8384,9 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -8138,8 +8397,9 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -8150,8 +8410,9 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -8162,8 +8423,9 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="7"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -8174,8 +8436,9 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="7"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -8186,8 +8449,9 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="7"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -8198,8 +8462,9 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -8210,8 +8475,9 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="7"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -8222,8 +8488,9 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="7"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="5"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -8234,8 +8501,9 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="7"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -8246,8 +8514,9 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="7"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="5"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -8258,8 +8527,9 @@
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="7"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -8270,8 +8540,9 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="7"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -8282,8 +8553,9 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="7"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -8294,8 +8566,9 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="7"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -8306,8 +8579,9 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="7"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -8318,8 +8592,9 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="7"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -8330,8 +8605,9 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="7"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -8342,8 +8618,9 @@
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="7"/>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -8354,8 +8631,9 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="7"/>
-    </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -8366,8 +8644,9 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="7"/>
-    </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -8378,8 +8657,9 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="7"/>
-    </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -8390,8 +8670,9 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="7"/>
-    </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -8402,8 +8683,9 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="7"/>
-    </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -8414,8 +8696,9 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="7"/>
-    </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -8426,8 +8709,9 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="7"/>
-    </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -8438,8 +8722,9 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="7"/>
-    </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="5"/>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -8450,8 +8735,9 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="7"/>
-    </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="5"/>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -8462,8 +8748,9 @@
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="7"/>
-    </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -8474,8 +8761,9 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="7"/>
-    </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="5"/>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -8486,8 +8774,9 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="7"/>
-    </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="5"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -8498,8 +8787,9 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="7"/>
-    </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="5"/>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -8510,8 +8800,9 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="7"/>
-    </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M78" s="5"/>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -8522,8 +8813,9 @@
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="7"/>
-    </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M79" s="5"/>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -8534,8 +8826,9 @@
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="7"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="5"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -8546,8 +8839,9 @@
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="7"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="5"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -8558,8 +8852,9 @@
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="7"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="5"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -8570,8 +8865,9 @@
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="7"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="5"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -8582,8 +8878,9 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="7"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="5"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -8594,8 +8891,9 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="7"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="5"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -8606,8 +8904,9 @@
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="7"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="5"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -8618,8 +8917,9 @@
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="7"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="5"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -8630,8 +8930,9 @@
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="7"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="5"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -8642,8 +8943,9 @@
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="7"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="5"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -8654,8 +8956,9 @@
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="7"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="5"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -8666,8 +8969,9 @@
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="7"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="5"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -8678,8 +8982,9 @@
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="7"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="5"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -8690,8 +8995,9 @@
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="7"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="5"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -8702,8 +9008,9 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="7"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="5"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -8714,8 +9021,9 @@
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="7"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="5"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -8726,8 +9034,9 @@
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="7"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="5"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -8738,8 +9047,9 @@
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="7"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="5"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -8750,8 +9060,9 @@
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="7"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="5"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -8762,8 +9073,9 @@
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="7"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="5"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -8774,8 +9086,9 @@
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="7"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="5"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -8786,8 +9099,9 @@
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="7"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="5"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -8798,8 +9112,9 @@
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="7"/>
-    </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M102" s="5"/>
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -8810,8 +9125,9 @@
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="7"/>
-    </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M103" s="5"/>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -8822,8 +9138,9 @@
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="7"/>
-    </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M104" s="5"/>
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -8834,8 +9151,9 @@
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="7"/>
-    </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M105" s="5"/>
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -8846,8 +9164,9 @@
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="7"/>
-    </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M106" s="5"/>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -8858,8 +9177,9 @@
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="7"/>
-    </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M107" s="5"/>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -8870,8 +9190,9 @@
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="7"/>
-    </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M108" s="5"/>
+    </row>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -8882,8 +9203,9 @@
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="7"/>
-    </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M109" s="5"/>
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -8894,8 +9216,9 @@
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="7"/>
-    </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M110" s="5"/>
+    </row>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -8906,8 +9229,9 @@
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="7"/>
-    </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M111" s="5"/>
+    </row>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -8918,8 +9242,9 @@
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="7"/>
-    </row>
-    <row r="113" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M112" s="5"/>
+    </row>
+    <row r="113" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -8930,8 +9255,9 @@
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="7"/>
-    </row>
-    <row r="114" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M113" s="5"/>
+    </row>
+    <row r="114" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -8941,8 +9267,9 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
-    </row>
-    <row r="115" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M114" s="5"/>
+    </row>
+    <row r="115" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -8952,8 +9279,9 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
-    </row>
-    <row r="116" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M115" s="5"/>
+    </row>
+    <row r="116" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -8963,8 +9291,9 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
-    </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M116" s="5"/>
+    </row>
+    <row r="117" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -8974,8 +9303,9 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
-    </row>
-    <row r="118" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M117" s="5"/>
+    </row>
+    <row r="118" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -8985,8 +9315,9 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
-    </row>
-    <row r="119" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M118" s="5"/>
+    </row>
+    <row r="119" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -8996,8 +9327,9 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
-    </row>
-    <row r="120" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M119" s="5"/>
+    </row>
+    <row r="120" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -9007,8 +9339,9 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
-    </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M120" s="5"/>
+    </row>
+    <row r="121" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -9018,8 +9351,9 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
-    </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M121" s="5"/>
+    </row>
+    <row r="122" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -9029,8 +9363,9 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
-    </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M122" s="5"/>
+    </row>
+    <row r="123" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -9040,8 +9375,9 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
-    </row>
-    <row r="124" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M123" s="5"/>
+    </row>
+    <row r="124" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -9051,8 +9387,9 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
-    </row>
-    <row r="125" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M124" s="5"/>
+    </row>
+    <row r="125" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -9062,8 +9399,9 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
-    </row>
-    <row r="126" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M125" s="5"/>
+    </row>
+    <row r="126" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -9073,8 +9411,9 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
-    </row>
-    <row r="127" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M126" s="5"/>
+    </row>
+    <row r="127" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -9084,8 +9423,9 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
-    </row>
-    <row r="128" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M127" s="5"/>
+    </row>
+    <row r="128" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -9095,8 +9435,9 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
-    </row>
-    <row r="129" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M128" s="5"/>
+    </row>
+    <row r="129" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -9106,8 +9447,9 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
-    </row>
-    <row r="130" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M129" s="5"/>
+    </row>
+    <row r="130" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -9117,8 +9459,9 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
-    </row>
-    <row r="131" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M130" s="5"/>
+    </row>
+    <row r="131" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -9128,8 +9471,9 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
-    </row>
-    <row r="132" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M131" s="5"/>
+    </row>
+    <row r="132" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -9139,8 +9483,9 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
-    </row>
-    <row r="133" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M132" s="5"/>
+    </row>
+    <row r="133" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -9150,8 +9495,9 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
-    </row>
-    <row r="134" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M133" s="5"/>
+    </row>
+    <row r="134" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -9161,8 +9507,9 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
-    </row>
-    <row r="135" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M134" s="5"/>
+    </row>
+    <row r="135" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -9172,8 +9519,9 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
-    </row>
-    <row r="136" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M135" s="5"/>
+    </row>
+    <row r="136" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -9183,8 +9531,9 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
-    </row>
-    <row r="137" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M136" s="5"/>
+    </row>
+    <row r="137" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -9194,8 +9543,9 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
-    </row>
-    <row r="138" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M137" s="5"/>
+    </row>
+    <row r="138" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -9205,8 +9555,9 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
-    </row>
-    <row r="139" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M138" s="5"/>
+    </row>
+    <row r="139" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -9216,8 +9567,9 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
-    </row>
-    <row r="140" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M139" s="5"/>
+    </row>
+    <row r="140" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -9227,8 +9579,9 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
-    </row>
-    <row r="141" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M140" s="5"/>
+    </row>
+    <row r="141" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -9238,8 +9591,9 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
-    </row>
-    <row r="142" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M141" s="5"/>
+    </row>
+    <row r="142" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -9249,8 +9603,9 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
-    </row>
-    <row r="143" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M142" s="5"/>
+    </row>
+    <row r="143" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -9260,8 +9615,9 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
-    </row>
-    <row r="144" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M143" s="5"/>
+    </row>
+    <row r="144" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -9271,8 +9627,9 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
-    </row>
-    <row r="145" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M144" s="5"/>
+    </row>
+    <row r="145" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -9282,8 +9639,9 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
-    </row>
-    <row r="146" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M145" s="5"/>
+    </row>
+    <row r="146" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -9293,8 +9651,9 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
-    </row>
-    <row r="147" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M146" s="5"/>
+    </row>
+    <row r="147" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -9304,8 +9663,9 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
-    </row>
-    <row r="148" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M147" s="5"/>
+    </row>
+    <row r="148" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -9315,8 +9675,9 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
-    </row>
-    <row r="149" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M148" s="5"/>
+    </row>
+    <row r="149" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -9326,8 +9687,9 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
-    </row>
-    <row r="150" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M149" s="5"/>
+    </row>
+    <row r="150" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -9337,8 +9699,9 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
-    </row>
-    <row r="151" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M150" s="5"/>
+    </row>
+    <row r="151" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -9348,8 +9711,9 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
-    </row>
-    <row r="152" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M151" s="5"/>
+    </row>
+    <row r="152" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -9359,8 +9723,9 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
-    </row>
-    <row r="153" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M152" s="5"/>
+    </row>
+    <row r="153" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -9370,8 +9735,9 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
-    </row>
-    <row r="154" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M153" s="5"/>
+    </row>
+    <row r="154" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -9381,8 +9747,9 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
-    </row>
-    <row r="155" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M154" s="5"/>
+    </row>
+    <row r="155" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -9392,8 +9759,9 @@
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
-    </row>
-    <row r="156" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M155" s="5"/>
+    </row>
+    <row r="156" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -9403,8 +9771,9 @@
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
-    </row>
-    <row r="157" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M156" s="5"/>
+    </row>
+    <row r="157" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -9414,8 +9783,9 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
-    </row>
-    <row r="158" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M157" s="5"/>
+    </row>
+    <row r="158" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -9425,8 +9795,9 @@
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
-    </row>
-    <row r="159" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M158" s="5"/>
+    </row>
+    <row r="159" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -9436,8 +9807,9 @@
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
-    </row>
-    <row r="160" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M159" s="5"/>
+    </row>
+    <row r="160" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -9447,8 +9819,9 @@
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
-    </row>
-    <row r="161" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M160" s="5"/>
+    </row>
+    <row r="161" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -9458,8 +9831,9 @@
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
-    </row>
-    <row r="162" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M161" s="5"/>
+    </row>
+    <row r="162" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -9469,8 +9843,9 @@
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
-    </row>
-    <row r="163" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M162" s="5"/>
+    </row>
+    <row r="163" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -9480,8 +9855,9 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
-    </row>
-    <row r="164" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M163" s="5"/>
+    </row>
+    <row r="164" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -9491,8 +9867,9 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
-    </row>
-    <row r="165" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M164" s="5"/>
+    </row>
+    <row r="165" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -9502,8 +9879,9 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
-    </row>
-    <row r="166" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M165" s="5"/>
+    </row>
+    <row r="166" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -9513,8 +9891,9 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
-    </row>
-    <row r="167" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M166" s="5"/>
+    </row>
+    <row r="167" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -9524,8 +9903,9 @@
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
-    </row>
-    <row r="168" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M167" s="5"/>
+    </row>
+    <row r="168" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -9535,8 +9915,9 @@
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
-    </row>
-    <row r="169" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M168" s="5"/>
+    </row>
+    <row r="169" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -9546,8 +9927,9 @@
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
-    </row>
-    <row r="170" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M169" s="5"/>
+    </row>
+    <row r="170" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -9557,8 +9939,9 @@
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
-    </row>
-    <row r="171" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M170" s="5"/>
+    </row>
+    <row r="171" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -9568,8 +9951,9 @@
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
-    </row>
-    <row r="172" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M171" s="5"/>
+    </row>
+    <row r="172" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -9579,8 +9963,9 @@
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
-    </row>
-    <row r="173" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M172" s="5"/>
+    </row>
+    <row r="173" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -9590,8 +9975,9 @@
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
-    </row>
-    <row r="174" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M173" s="5"/>
+    </row>
+    <row r="174" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -9601,8 +9987,9 @@
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
-    </row>
-    <row r="175" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M174" s="5"/>
+    </row>
+    <row r="175" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -9612,8 +9999,9 @@
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
-    </row>
-    <row r="176" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M175" s="5"/>
+    </row>
+    <row r="176" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -9623,8 +10011,9 @@
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
-    </row>
-    <row r="177" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M176" s="5"/>
+    </row>
+    <row r="177" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -9634,8 +10023,9 @@
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
-    </row>
-    <row r="178" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M177" s="5"/>
+    </row>
+    <row r="178" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -9645,8 +10035,9 @@
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
-    </row>
-    <row r="179" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M178" s="5"/>
+    </row>
+    <row r="179" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -9656,8 +10047,9 @@
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
-    </row>
-    <row r="180" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M179" s="5"/>
+    </row>
+    <row r="180" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -9667,8 +10059,9 @@
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
       <c r="K180" s="5"/>
-    </row>
-    <row r="181" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M180" s="5"/>
+    </row>
+    <row r="181" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -9678,8 +10071,9 @@
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
-    </row>
-    <row r="182" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M181" s="5"/>
+    </row>
+    <row r="182" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -9689,8 +10083,9 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
-    </row>
-    <row r="183" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M182" s="5"/>
+    </row>
+    <row r="183" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -9700,8 +10095,9 @@
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
-    </row>
-    <row r="184" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M183" s="5"/>
+    </row>
+    <row r="184" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -9711,8 +10107,9 @@
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
-    </row>
-    <row r="185" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M184" s="5"/>
+    </row>
+    <row r="185" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -9722,8 +10119,9 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
       <c r="K185" s="5"/>
-    </row>
-    <row r="186" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M185" s="5"/>
+    </row>
+    <row r="186" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -9733,8 +10131,9 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
-    </row>
-    <row r="187" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M186" s="5"/>
+    </row>
+    <row r="187" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -9744,8 +10143,9 @@
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
-    </row>
-    <row r="188" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M187" s="5"/>
+    </row>
+    <row r="188" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -9755,8 +10155,9 @@
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
-    </row>
-    <row r="189" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M188" s="5"/>
+    </row>
+    <row r="189" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -9766,8 +10167,9 @@
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
-    </row>
-    <row r="190" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M189" s="5"/>
+    </row>
+    <row r="190" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -9777,8 +10179,9 @@
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
       <c r="K190" s="5"/>
-    </row>
-    <row r="191" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M190" s="5"/>
+    </row>
+    <row r="191" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -9788,8 +10191,9 @@
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
-    </row>
-    <row r="192" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M191" s="5"/>
+    </row>
+    <row r="192" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -9799,8 +10203,9 @@
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
-    </row>
-    <row r="193" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M192" s="5"/>
+    </row>
+    <row r="193" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -9810,8 +10215,9 @@
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
-    </row>
-    <row r="194" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M193" s="5"/>
+    </row>
+    <row r="194" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -9821,8 +10227,9 @@
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
-    </row>
-    <row r="195" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M194" s="5"/>
+    </row>
+    <row r="195" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -9832,8 +10239,9 @@
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
-    </row>
-    <row r="196" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M195" s="5"/>
+    </row>
+    <row r="196" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -9843,8 +10251,9 @@
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
-    </row>
-    <row r="197" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M196" s="5"/>
+    </row>
+    <row r="197" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -9854,8 +10263,9 @@
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
-    </row>
-    <row r="198" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M197" s="5"/>
+    </row>
+    <row r="198" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -9865,8 +10275,9 @@
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
-    </row>
-    <row r="199" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M198" s="5"/>
+    </row>
+    <row r="199" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -9876,8 +10287,9 @@
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
-    </row>
-    <row r="200" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M199" s="5"/>
+    </row>
+    <row r="200" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -9887,8 +10299,9 @@
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
-    </row>
-    <row r="201" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M200" s="5"/>
+    </row>
+    <row r="201" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -9898,8 +10311,9 @@
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
-    </row>
-    <row r="202" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M201" s="5"/>
+    </row>
+    <row r="202" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -9909,8 +10323,9 @@
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
-    </row>
-    <row r="203" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M202" s="5"/>
+    </row>
+    <row r="203" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -9920,8 +10335,9 @@
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
-    </row>
-    <row r="204" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M203" s="5"/>
+    </row>
+    <row r="204" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -9931,8 +10347,9 @@
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
-    </row>
-    <row r="205" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M204" s="5"/>
+    </row>
+    <row r="205" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -9942,8 +10359,9 @@
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
-    </row>
-    <row r="206" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M205" s="5"/>
+    </row>
+    <row r="206" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -9953,8 +10371,9 @@
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
-    </row>
-    <row r="207" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M206" s="5"/>
+    </row>
+    <row r="207" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -9964,8 +10383,9 @@
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
-    </row>
-    <row r="208" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M207" s="5"/>
+    </row>
+    <row r="208" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -9975,8 +10395,9 @@
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
-    </row>
-    <row r="209" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M208" s="5"/>
+    </row>
+    <row r="209" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -9986,8 +10407,9 @@
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
-    </row>
-    <row r="210" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M209" s="5"/>
+    </row>
+    <row r="210" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -9997,8 +10419,9 @@
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
-    </row>
-    <row r="211" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M210" s="5"/>
+    </row>
+    <row r="211" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -10008,8 +10431,9 @@
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
-    </row>
-    <row r="212" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M211" s="5"/>
+    </row>
+    <row r="212" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -10019,8 +10443,9 @@
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
-    </row>
-    <row r="213" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M212" s="5"/>
+    </row>
+    <row r="213" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -10030,8 +10455,9 @@
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
-    </row>
-    <row r="214" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M213" s="5"/>
+    </row>
+    <row r="214" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -10041,8 +10467,9 @@
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
-    </row>
-    <row r="215" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M214" s="5"/>
+    </row>
+    <row r="215" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -10052,8 +10479,9 @@
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
-    </row>
-    <row r="216" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M215" s="5"/>
+    </row>
+    <row r="216" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -10063,8 +10491,9 @@
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
-    </row>
-    <row r="217" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M216" s="5"/>
+    </row>
+    <row r="217" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -10074,8 +10503,9 @@
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
-    </row>
-    <row r="218" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M217" s="5"/>
+    </row>
+    <row r="218" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -10085,8 +10515,9 @@
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
-    </row>
-    <row r="219" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M218" s="5"/>
+    </row>
+    <row r="219" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -10096,8 +10527,9 @@
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
-    </row>
-    <row r="220" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M219" s="5"/>
+    </row>
+    <row r="220" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -10107,8 +10539,9 @@
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
-    </row>
-    <row r="221" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M220" s="5"/>
+    </row>
+    <row r="221" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -10118,8 +10551,9 @@
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
-    </row>
-    <row r="222" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M221" s="5"/>
+    </row>
+    <row r="222" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -10129,8 +10563,9 @@
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
       <c r="K222" s="5"/>
-    </row>
-    <row r="223" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M222" s="5"/>
+    </row>
+    <row r="223" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -10140,8 +10575,9 @@
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
       <c r="K223" s="5"/>
-    </row>
-    <row r="224" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M223" s="5"/>
+    </row>
+    <row r="224" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -10151,8 +10587,9 @@
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
-    </row>
-    <row r="225" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M224" s="5"/>
+    </row>
+    <row r="225" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -10162,8 +10599,9 @@
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
-    </row>
-    <row r="226" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M225" s="5"/>
+    </row>
+    <row r="226" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -10173,8 +10611,9 @@
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
       <c r="K226" s="5"/>
-    </row>
-    <row r="227" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M226" s="5"/>
+    </row>
+    <row r="227" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -10184,8 +10623,9 @@
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
       <c r="K227" s="5"/>
-    </row>
-    <row r="228" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M227" s="5"/>
+    </row>
+    <row r="228" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -10195,8 +10635,9 @@
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
       <c r="K228" s="5"/>
-    </row>
-    <row r="229" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M228" s="5"/>
+    </row>
+    <row r="229" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -10206,8 +10647,9 @@
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
       <c r="K229" s="5"/>
-    </row>
-    <row r="230" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M229" s="5"/>
+    </row>
+    <row r="230" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -10217,8 +10659,9 @@
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
       <c r="K230" s="5"/>
-    </row>
-    <row r="231" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M230" s="5"/>
+    </row>
+    <row r="231" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -10228,8 +10671,9 @@
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
       <c r="K231" s="5"/>
-    </row>
-    <row r="232" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M231" s="5"/>
+    </row>
+    <row r="232" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -10239,8 +10683,9 @@
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
       <c r="K232" s="5"/>
-    </row>
-    <row r="233" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M232" s="5"/>
+    </row>
+    <row r="233" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -10250,8 +10695,9 @@
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
       <c r="K233" s="5"/>
-    </row>
-    <row r="234" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M233" s="5"/>
+    </row>
+    <row r="234" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -10261,8 +10707,9 @@
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
       <c r="K234" s="5"/>
-    </row>
-    <row r="235" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M234" s="5"/>
+    </row>
+    <row r="235" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -10272,8 +10719,9 @@
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
       <c r="K235" s="5"/>
-    </row>
-    <row r="236" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M235" s="5"/>
+    </row>
+    <row r="236" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -10283,8 +10731,9 @@
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
       <c r="K236" s="5"/>
-    </row>
-    <row r="237" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M236" s="5"/>
+    </row>
+    <row r="237" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -10294,8 +10743,9 @@
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
       <c r="K237" s="5"/>
-    </row>
-    <row r="238" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M237" s="5"/>
+    </row>
+    <row r="238" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -10305,8 +10755,9 @@
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
       <c r="K238" s="5"/>
-    </row>
-    <row r="239" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M238" s="5"/>
+    </row>
+    <row r="239" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -10316,8 +10767,9 @@
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
       <c r="K239" s="5"/>
-    </row>
-    <row r="240" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M239" s="5"/>
+    </row>
+    <row r="240" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -10327,8 +10779,9 @@
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
       <c r="K240" s="5"/>
-    </row>
-    <row r="241" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M240" s="5"/>
+    </row>
+    <row r="241" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -10338,8 +10791,9 @@
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
       <c r="K241" s="5"/>
-    </row>
-    <row r="242" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M241" s="5"/>
+    </row>
+    <row r="242" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -10349,8 +10803,9 @@
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
       <c r="K242" s="5"/>
-    </row>
-    <row r="243" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M242" s="5"/>
+    </row>
+    <row r="243" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -10360,8 +10815,9 @@
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
       <c r="K243" s="5"/>
-    </row>
-    <row r="244" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M243" s="5"/>
+    </row>
+    <row r="244" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -10371,8 +10827,9 @@
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
       <c r="K244" s="5"/>
-    </row>
-    <row r="245" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M244" s="5"/>
+    </row>
+    <row r="245" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -10382,8 +10839,9 @@
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
       <c r="K245" s="5"/>
-    </row>
-    <row r="246" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M245" s="5"/>
+    </row>
+    <row r="246" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -10393,8 +10851,9 @@
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
       <c r="K246" s="5"/>
-    </row>
-    <row r="247" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M246" s="5"/>
+    </row>
+    <row r="247" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -10404,8 +10863,9 @@
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
       <c r="K247" s="5"/>
-    </row>
-    <row r="248" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M247" s="5"/>
+    </row>
+    <row r="248" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -10415,8 +10875,9 @@
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
       <c r="K248" s="5"/>
-    </row>
-    <row r="249" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M248" s="5"/>
+    </row>
+    <row r="249" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -10426,8 +10887,9 @@
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
       <c r="K249" s="5"/>
-    </row>
-    <row r="250" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M249" s="5"/>
+    </row>
+    <row r="250" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -10437,8 +10899,9 @@
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
       <c r="K250" s="5"/>
-    </row>
-    <row r="251" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M250" s="5"/>
+    </row>
+    <row r="251" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -10448,8 +10911,9 @@
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
       <c r="K251" s="5"/>
-    </row>
-    <row r="252" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M251" s="5"/>
+    </row>
+    <row r="252" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -10459,8 +10923,9 @@
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
       <c r="K252" s="5"/>
-    </row>
-    <row r="253" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M252" s="5"/>
+    </row>
+    <row r="253" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -10470,8 +10935,9 @@
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
       <c r="K253" s="5"/>
-    </row>
-    <row r="254" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M253" s="5"/>
+    </row>
+    <row r="254" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -10481,8 +10947,9 @@
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
       <c r="K254" s="5"/>
-    </row>
-    <row r="255" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M254" s="5"/>
+    </row>
+    <row r="255" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -10492,8 +10959,9 @@
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
       <c r="K255" s="5"/>
-    </row>
-    <row r="256" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M255" s="5"/>
+    </row>
+    <row r="256" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -10503,8 +10971,9 @@
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
       <c r="K256" s="5"/>
-    </row>
-    <row r="257" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M256" s="5"/>
+    </row>
+    <row r="257" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -10514,8 +10983,9 @@
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
       <c r="K257" s="5"/>
-    </row>
-    <row r="258" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M257" s="5"/>
+    </row>
+    <row r="258" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -10525,8 +10995,9 @@
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
       <c r="K258" s="5"/>
-    </row>
-    <row r="259" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M258" s="5"/>
+    </row>
+    <row r="259" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -10536,8 +11007,9 @@
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
       <c r="K259" s="5"/>
-    </row>
-    <row r="260" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M259" s="5"/>
+    </row>
+    <row r="260" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -10547,8 +11019,9 @@
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
       <c r="K260" s="5"/>
-    </row>
-    <row r="261" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M260" s="5"/>
+    </row>
+    <row r="261" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -10558,8 +11031,9 @@
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
       <c r="K261" s="5"/>
-    </row>
-    <row r="262" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M261" s="5"/>
+    </row>
+    <row r="262" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -10569,8 +11043,9 @@
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
       <c r="K262" s="5"/>
-    </row>
-    <row r="263" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M262" s="5"/>
+    </row>
+    <row r="263" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -10580,8 +11055,9 @@
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
       <c r="K263" s="5"/>
-    </row>
-    <row r="264" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M263" s="5"/>
+    </row>
+    <row r="264" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -10591,8 +11067,9 @@
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
       <c r="K264" s="5"/>
-    </row>
-    <row r="265" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M264" s="5"/>
+    </row>
+    <row r="265" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -10602,8 +11079,9 @@
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
       <c r="K265" s="5"/>
-    </row>
-    <row r="266" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M265" s="5"/>
+    </row>
+    <row r="266" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -10613,8 +11091,9 @@
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
       <c r="K266" s="5"/>
-    </row>
-    <row r="267" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M266" s="5"/>
+    </row>
+    <row r="267" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -10624,8 +11103,9 @@
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
       <c r="K267" s="5"/>
-    </row>
-    <row r="268" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M267" s="5"/>
+    </row>
+    <row r="268" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -10635,8 +11115,9 @@
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
       <c r="K268" s="5"/>
-    </row>
-    <row r="269" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M268" s="5"/>
+    </row>
+    <row r="269" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -10646,8 +11127,9 @@
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
       <c r="K269" s="5"/>
-    </row>
-    <row r="270" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M269" s="5"/>
+    </row>
+    <row r="270" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -10657,8 +11139,9 @@
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
       <c r="K270" s="5"/>
-    </row>
-    <row r="271" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M270" s="5"/>
+    </row>
+    <row r="271" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -10668,8 +11151,9 @@
       <c r="I271" s="5"/>
       <c r="J271" s="5"/>
       <c r="K271" s="5"/>
-    </row>
-    <row r="272" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M271" s="5"/>
+    </row>
+    <row r="272" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -10679,8 +11163,9 @@
       <c r="I272" s="5"/>
       <c r="J272" s="5"/>
       <c r="K272" s="5"/>
-    </row>
-    <row r="273" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M272" s="5"/>
+    </row>
+    <row r="273" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -10690,8 +11175,9 @@
       <c r="I273" s="5"/>
       <c r="J273" s="5"/>
       <c r="K273" s="5"/>
-    </row>
-    <row r="274" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M273" s="5"/>
+    </row>
+    <row r="274" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -10701,8 +11187,9 @@
       <c r="I274" s="5"/>
       <c r="J274" s="5"/>
       <c r="K274" s="5"/>
-    </row>
-    <row r="275" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M274" s="5"/>
+    </row>
+    <row r="275" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -10712,8 +11199,9 @@
       <c r="I275" s="5"/>
       <c r="J275" s="5"/>
       <c r="K275" s="5"/>
-    </row>
-    <row r="276" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M275" s="5"/>
+    </row>
+    <row r="276" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -10723,8 +11211,9 @@
       <c r="I276" s="5"/>
       <c r="J276" s="5"/>
       <c r="K276" s="5"/>
-    </row>
-    <row r="277" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M276" s="5"/>
+    </row>
+    <row r="277" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -10734,8 +11223,9 @@
       <c r="I277" s="5"/>
       <c r="J277" s="5"/>
       <c r="K277" s="5"/>
-    </row>
-    <row r="278" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M277" s="5"/>
+    </row>
+    <row r="278" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -10745,8 +11235,9 @@
       <c r="I278" s="5"/>
       <c r="J278" s="5"/>
       <c r="K278" s="5"/>
-    </row>
-    <row r="279" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M278" s="5"/>
+    </row>
+    <row r="279" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -10756,8 +11247,9 @@
       <c r="I279" s="5"/>
       <c r="J279" s="5"/>
       <c r="K279" s="5"/>
-    </row>
-    <row r="280" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M279" s="5"/>
+    </row>
+    <row r="280" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -10767,8 +11259,9 @@
       <c r="I280" s="5"/>
       <c r="J280" s="5"/>
       <c r="K280" s="5"/>
-    </row>
-    <row r="281" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M280" s="5"/>
+    </row>
+    <row r="281" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -10778,8 +11271,9 @@
       <c r="I281" s="5"/>
       <c r="J281" s="5"/>
       <c r="K281" s="5"/>
-    </row>
-    <row r="282" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M281" s="5"/>
+    </row>
+    <row r="282" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -10789,8 +11283,9 @@
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
       <c r="K282" s="5"/>
-    </row>
-    <row r="283" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M282" s="5"/>
+    </row>
+    <row r="283" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -10800,8 +11295,9 @@
       <c r="I283" s="5"/>
       <c r="J283" s="5"/>
       <c r="K283" s="5"/>
-    </row>
-    <row r="284" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M283" s="5"/>
+    </row>
+    <row r="284" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -10811,8 +11307,9 @@
       <c r="I284" s="5"/>
       <c r="J284" s="5"/>
       <c r="K284" s="5"/>
-    </row>
-    <row r="285" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M284" s="5"/>
+    </row>
+    <row r="285" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -10822,8 +11319,9 @@
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
       <c r="K285" s="5"/>
-    </row>
-    <row r="286" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M285" s="5"/>
+    </row>
+    <row r="286" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -10833,8 +11331,9 @@
       <c r="I286" s="5"/>
       <c r="J286" s="5"/>
       <c r="K286" s="5"/>
-    </row>
-    <row r="287" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M286" s="5"/>
+    </row>
+    <row r="287" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -10844,8 +11343,9 @@
       <c r="I287" s="5"/>
       <c r="J287" s="5"/>
       <c r="K287" s="5"/>
-    </row>
-    <row r="288" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M287" s="5"/>
+    </row>
+    <row r="288" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -10855,8 +11355,9 @@
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
       <c r="K288" s="5"/>
-    </row>
-    <row r="289" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M288" s="5"/>
+    </row>
+    <row r="289" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -10866,8 +11367,9 @@
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
       <c r="K289" s="5"/>
-    </row>
-    <row r="290" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M289" s="5"/>
+    </row>
+    <row r="290" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -10877,8 +11379,9 @@
       <c r="I290" s="5"/>
       <c r="J290" s="5"/>
       <c r="K290" s="5"/>
-    </row>
-    <row r="291" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M290" s="5"/>
+    </row>
+    <row r="291" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -10888,8 +11391,9 @@
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
       <c r="K291" s="5"/>
-    </row>
-    <row r="292" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M291" s="5"/>
+    </row>
+    <row r="292" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -10899,8 +11403,9 @@
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
       <c r="K292" s="5"/>
-    </row>
-    <row r="293" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M292" s="5"/>
+    </row>
+    <row r="293" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -10910,8 +11415,9 @@
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
       <c r="K293" s="5"/>
-    </row>
-    <row r="294" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M293" s="5"/>
+    </row>
+    <row r="294" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -10921,8 +11427,9 @@
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
       <c r="K294" s="5"/>
-    </row>
-    <row r="295" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M294" s="5"/>
+    </row>
+    <row r="295" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -10932,8 +11439,9 @@
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
       <c r="K295" s="5"/>
-    </row>
-    <row r="296" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M295" s="5"/>
+    </row>
+    <row r="296" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -10943,8 +11451,9 @@
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
       <c r="K296" s="5"/>
-    </row>
-    <row r="297" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M296" s="5"/>
+    </row>
+    <row r="297" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -10954,8 +11463,9 @@
       <c r="I297" s="5"/>
       <c r="J297" s="5"/>
       <c r="K297" s="5"/>
-    </row>
-    <row r="298" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M297" s="5"/>
+    </row>
+    <row r="298" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -10965,8 +11475,9 @@
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
       <c r="K298" s="5"/>
-    </row>
-    <row r="299" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M298" s="5"/>
+    </row>
+    <row r="299" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -10976,8 +11487,9 @@
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
       <c r="K299" s="5"/>
-    </row>
-    <row r="300" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M299" s="5"/>
+    </row>
+    <row r="300" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -10987,8 +11499,9 @@
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
       <c r="K300" s="5"/>
-    </row>
-    <row r="301" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M300" s="5"/>
+    </row>
+    <row r="301" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -10998,8 +11511,9 @@
       <c r="I301" s="5"/>
       <c r="J301" s="5"/>
       <c r="K301" s="5"/>
-    </row>
-    <row r="302" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M301" s="5"/>
+    </row>
+    <row r="302" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -11009,8 +11523,9 @@
       <c r="I302" s="5"/>
       <c r="J302" s="5"/>
       <c r="K302" s="5"/>
-    </row>
-    <row r="303" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M302" s="5"/>
+    </row>
+    <row r="303" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -11020,8 +11535,9 @@
       <c r="I303" s="5"/>
       <c r="J303" s="5"/>
       <c r="K303" s="5"/>
-    </row>
-    <row r="304" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M303" s="5"/>
+    </row>
+    <row r="304" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -11031,8 +11547,9 @@
       <c r="I304" s="5"/>
       <c r="J304" s="5"/>
       <c r="K304" s="5"/>
-    </row>
-    <row r="305" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M304" s="5"/>
+    </row>
+    <row r="305" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -11042,8 +11559,9 @@
       <c r="I305" s="5"/>
       <c r="J305" s="5"/>
       <c r="K305" s="5"/>
-    </row>
-    <row r="306" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M305" s="5"/>
+    </row>
+    <row r="306" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -11053,8 +11571,9 @@
       <c r="I306" s="5"/>
       <c r="J306" s="5"/>
       <c r="K306" s="5"/>
-    </row>
-    <row r="307" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M306" s="5"/>
+    </row>
+    <row r="307" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -11064,8 +11583,9 @@
       <c r="I307" s="5"/>
       <c r="J307" s="5"/>
       <c r="K307" s="5"/>
-    </row>
-    <row r="308" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M307" s="5"/>
+    </row>
+    <row r="308" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -11075,8 +11595,9 @@
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
       <c r="K308" s="5"/>
-    </row>
-    <row r="309" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M308" s="5"/>
+    </row>
+    <row r="309" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -11086,8 +11607,9 @@
       <c r="I309" s="5"/>
       <c r="J309" s="5"/>
       <c r="K309" s="5"/>
-    </row>
-    <row r="310" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M309" s="5"/>
+    </row>
+    <row r="310" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -11097,8 +11619,9 @@
       <c r="I310" s="5"/>
       <c r="J310" s="5"/>
       <c r="K310" s="5"/>
-    </row>
-    <row r="311" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M310" s="5"/>
+    </row>
+    <row r="311" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -11108,8 +11631,9 @@
       <c r="I311" s="5"/>
       <c r="J311" s="5"/>
       <c r="K311" s="5"/>
-    </row>
-    <row r="312" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M311" s="5"/>
+    </row>
+    <row r="312" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -11119,8 +11643,9 @@
       <c r="I312" s="5"/>
       <c r="J312" s="5"/>
       <c r="K312" s="5"/>
-    </row>
-    <row r="313" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M312" s="5"/>
+    </row>
+    <row r="313" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -11130,8 +11655,9 @@
       <c r="I313" s="5"/>
       <c r="J313" s="5"/>
       <c r="K313" s="5"/>
-    </row>
-    <row r="314" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M313" s="5"/>
+    </row>
+    <row r="314" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -11141,8 +11667,9 @@
       <c r="I314" s="5"/>
       <c r="J314" s="5"/>
       <c r="K314" s="5"/>
-    </row>
-    <row r="315" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M314" s="5"/>
+    </row>
+    <row r="315" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -11152,8 +11679,9 @@
       <c r="I315" s="5"/>
       <c r="J315" s="5"/>
       <c r="K315" s="5"/>
-    </row>
-    <row r="316" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M315" s="5"/>
+    </row>
+    <row r="316" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -11163,8 +11691,9 @@
       <c r="I316" s="5"/>
       <c r="J316" s="5"/>
       <c r="K316" s="5"/>
-    </row>
-    <row r="317" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M316" s="5"/>
+    </row>
+    <row r="317" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -11174,8 +11703,9 @@
       <c r="I317" s="5"/>
       <c r="J317" s="5"/>
       <c r="K317" s="5"/>
-    </row>
-    <row r="318" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M317" s="5"/>
+    </row>
+    <row r="318" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -11185,8 +11715,9 @@
       <c r="I318" s="5"/>
       <c r="J318" s="5"/>
       <c r="K318" s="5"/>
-    </row>
-    <row r="319" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M318" s="5"/>
+    </row>
+    <row r="319" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -11196,8 +11727,9 @@
       <c r="I319" s="5"/>
       <c r="J319" s="5"/>
       <c r="K319" s="5"/>
-    </row>
-    <row r="320" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M319" s="5"/>
+    </row>
+    <row r="320" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -11207,8 +11739,9 @@
       <c r="I320" s="5"/>
       <c r="J320" s="5"/>
       <c r="K320" s="5"/>
-    </row>
-    <row r="321" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M320" s="5"/>
+    </row>
+    <row r="321" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -11218,8 +11751,9 @@
       <c r="I321" s="5"/>
       <c r="J321" s="5"/>
       <c r="K321" s="5"/>
-    </row>
-    <row r="322" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M321" s="5"/>
+    </row>
+    <row r="322" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -11229,8 +11763,9 @@
       <c r="I322" s="5"/>
       <c r="J322" s="5"/>
       <c r="K322" s="5"/>
-    </row>
-    <row r="323" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M322" s="5"/>
+    </row>
+    <row r="323" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -11240,8 +11775,9 @@
       <c r="I323" s="5"/>
       <c r="J323" s="5"/>
       <c r="K323" s="5"/>
-    </row>
-    <row r="324" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M323" s="5"/>
+    </row>
+    <row r="324" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -11251,8 +11787,9 @@
       <c r="I324" s="5"/>
       <c r="J324" s="5"/>
       <c r="K324" s="5"/>
-    </row>
-    <row r="325" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M324" s="5"/>
+    </row>
+    <row r="325" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
@@ -11262,8 +11799,9 @@
       <c r="I325" s="5"/>
       <c r="J325" s="5"/>
       <c r="K325" s="5"/>
-    </row>
-    <row r="326" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M325" s="5"/>
+    </row>
+    <row r="326" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -11273,8 +11811,9 @@
       <c r="I326" s="5"/>
       <c r="J326" s="5"/>
       <c r="K326" s="5"/>
-    </row>
-    <row r="327" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M326" s="5"/>
+    </row>
+    <row r="327" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -11284,8 +11823,9 @@
       <c r="I327" s="5"/>
       <c r="J327" s="5"/>
       <c r="K327" s="5"/>
-    </row>
-    <row r="328" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M327" s="5"/>
+    </row>
+    <row r="328" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -11295,8 +11835,9 @@
       <c r="I328" s="5"/>
       <c r="J328" s="5"/>
       <c r="K328" s="5"/>
-    </row>
-    <row r="329" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M328" s="5"/>
+    </row>
+    <row r="329" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -11306,8 +11847,9 @@
       <c r="I329" s="5"/>
       <c r="J329" s="5"/>
       <c r="K329" s="5"/>
-    </row>
-    <row r="330" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M329" s="5"/>
+    </row>
+    <row r="330" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -11317,8 +11859,9 @@
       <c r="I330" s="5"/>
       <c r="J330" s="5"/>
       <c r="K330" s="5"/>
-    </row>
-    <row r="331" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M330" s="5"/>
+    </row>
+    <row r="331" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -11328,8 +11871,9 @@
       <c r="I331" s="5"/>
       <c r="J331" s="5"/>
       <c r="K331" s="5"/>
-    </row>
-    <row r="332" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M331" s="5"/>
+    </row>
+    <row r="332" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -11339,8 +11883,9 @@
       <c r="I332" s="5"/>
       <c r="J332" s="5"/>
       <c r="K332" s="5"/>
-    </row>
-    <row r="333" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M332" s="5"/>
+    </row>
+    <row r="333" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -11350,8 +11895,9 @@
       <c r="I333" s="5"/>
       <c r="J333" s="5"/>
       <c r="K333" s="5"/>
-    </row>
-    <row r="334" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M333" s="5"/>
+    </row>
+    <row r="334" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -11361,8 +11907,9 @@
       <c r="I334" s="5"/>
       <c r="J334" s="5"/>
       <c r="K334" s="5"/>
-    </row>
-    <row r="335" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M334" s="5"/>
+    </row>
+    <row r="335" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -11372,8 +11919,9 @@
       <c r="I335" s="5"/>
       <c r="J335" s="5"/>
       <c r="K335" s="5"/>
-    </row>
-    <row r="336" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M335" s="5"/>
+    </row>
+    <row r="336" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -11383,8 +11931,9 @@
       <c r="I336" s="5"/>
       <c r="J336" s="5"/>
       <c r="K336" s="5"/>
-    </row>
-    <row r="337" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M336" s="5"/>
+    </row>
+    <row r="337" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -11394,8 +11943,9 @@
       <c r="I337" s="5"/>
       <c r="J337" s="5"/>
       <c r="K337" s="5"/>
-    </row>
-    <row r="338" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M337" s="5"/>
+    </row>
+    <row r="338" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -11405,8 +11955,9 @@
       <c r="I338" s="5"/>
       <c r="J338" s="5"/>
       <c r="K338" s="5"/>
-    </row>
-    <row r="339" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M338" s="5"/>
+    </row>
+    <row r="339" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -11416,8 +11967,9 @@
       <c r="I339" s="5"/>
       <c r="J339" s="5"/>
       <c r="K339" s="5"/>
-    </row>
-    <row r="340" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M339" s="5"/>
+    </row>
+    <row r="340" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -11427,8 +11979,9 @@
       <c r="I340" s="5"/>
       <c r="J340" s="5"/>
       <c r="K340" s="5"/>
-    </row>
-    <row r="341" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M340" s="5"/>
+    </row>
+    <row r="341" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -11438,8 +11991,9 @@
       <c r="I341" s="5"/>
       <c r="J341" s="5"/>
       <c r="K341" s="5"/>
-    </row>
-    <row r="342" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M341" s="5"/>
+    </row>
+    <row r="342" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -11449,8 +12003,9 @@
       <c r="I342" s="5"/>
       <c r="J342" s="5"/>
       <c r="K342" s="5"/>
-    </row>
-    <row r="343" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M342" s="5"/>
+    </row>
+    <row r="343" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -11460,8 +12015,9 @@
       <c r="I343" s="5"/>
       <c r="J343" s="5"/>
       <c r="K343" s="5"/>
-    </row>
-    <row r="344" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M343" s="5"/>
+    </row>
+    <row r="344" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -11471,8 +12027,9 @@
       <c r="I344" s="5"/>
       <c r="J344" s="5"/>
       <c r="K344" s="5"/>
-    </row>
-    <row r="345" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M344" s="5"/>
+    </row>
+    <row r="345" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -11482,8 +12039,9 @@
       <c r="I345" s="5"/>
       <c r="J345" s="5"/>
       <c r="K345" s="5"/>
-    </row>
-    <row r="346" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M345" s="5"/>
+    </row>
+    <row r="346" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -11493,8 +12051,9 @@
       <c r="I346" s="5"/>
       <c r="J346" s="5"/>
       <c r="K346" s="5"/>
-    </row>
-    <row r="347" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M346" s="5"/>
+    </row>
+    <row r="347" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -11504,8 +12063,9 @@
       <c r="I347" s="5"/>
       <c r="J347" s="5"/>
       <c r="K347" s="5"/>
-    </row>
-    <row r="348" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M347" s="5"/>
+    </row>
+    <row r="348" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -11515,8 +12075,9 @@
       <c r="I348" s="5"/>
       <c r="J348" s="5"/>
       <c r="K348" s="5"/>
-    </row>
-    <row r="349" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M348" s="5"/>
+    </row>
+    <row r="349" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -11526,8 +12087,9 @@
       <c r="I349" s="5"/>
       <c r="J349" s="5"/>
       <c r="K349" s="5"/>
-    </row>
-    <row r="350" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M349" s="5"/>
+    </row>
+    <row r="350" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -11537,8 +12099,9 @@
       <c r="I350" s="5"/>
       <c r="J350" s="5"/>
       <c r="K350" s="5"/>
-    </row>
-    <row r="351" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M350" s="5"/>
+    </row>
+    <row r="351" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
@@ -11548,8 +12111,9 @@
       <c r="I351" s="5"/>
       <c r="J351" s="5"/>
       <c r="K351" s="5"/>
-    </row>
-    <row r="352" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M351" s="5"/>
+    </row>
+    <row r="352" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -11559,8 +12123,9 @@
       <c r="I352" s="5"/>
       <c r="J352" s="5"/>
       <c r="K352" s="5"/>
-    </row>
-    <row r="353" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M352" s="5"/>
+    </row>
+    <row r="353" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -11570,8 +12135,9 @@
       <c r="I353" s="5"/>
       <c r="J353" s="5"/>
       <c r="K353" s="5"/>
-    </row>
-    <row r="354" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M353" s="5"/>
+    </row>
+    <row r="354" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -11581,8 +12147,9 @@
       <c r="I354" s="5"/>
       <c r="J354" s="5"/>
       <c r="K354" s="5"/>
-    </row>
-    <row r="355" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M354" s="5"/>
+    </row>
+    <row r="355" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -11592,8 +12159,9 @@
       <c r="I355" s="5"/>
       <c r="J355" s="5"/>
       <c r="K355" s="5"/>
-    </row>
-    <row r="356" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M355" s="5"/>
+    </row>
+    <row r="356" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -11603,8 +12171,9 @@
       <c r="I356" s="5"/>
       <c r="J356" s="5"/>
       <c r="K356" s="5"/>
-    </row>
-    <row r="357" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M356" s="5"/>
+    </row>
+    <row r="357" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -11614,8 +12183,9 @@
       <c r="I357" s="5"/>
       <c r="J357" s="5"/>
       <c r="K357" s="5"/>
-    </row>
-    <row r="358" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M357" s="5"/>
+    </row>
+    <row r="358" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -11625,8 +12195,9 @@
       <c r="I358" s="5"/>
       <c r="J358" s="5"/>
       <c r="K358" s="5"/>
-    </row>
-    <row r="359" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M358" s="5"/>
+    </row>
+    <row r="359" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
@@ -11636,8 +12207,9 @@
       <c r="I359" s="5"/>
       <c r="J359" s="5"/>
       <c r="K359" s="5"/>
-    </row>
-    <row r="360" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M359" s="5"/>
+    </row>
+    <row r="360" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
@@ -11647,8 +12219,9 @@
       <c r="I360" s="5"/>
       <c r="J360" s="5"/>
       <c r="K360" s="5"/>
-    </row>
-    <row r="361" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M360" s="5"/>
+    </row>
+    <row r="361" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -11658,8 +12231,9 @@
       <c r="I361" s="5"/>
       <c r="J361" s="5"/>
       <c r="K361" s="5"/>
-    </row>
-    <row r="362" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M361" s="5"/>
+    </row>
+    <row r="362" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -11669,8 +12243,9 @@
       <c r="I362" s="5"/>
       <c r="J362" s="5"/>
       <c r="K362" s="5"/>
-    </row>
-    <row r="363" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M362" s="5"/>
+    </row>
+    <row r="363" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -11680,8 +12255,9 @@
       <c r="I363" s="5"/>
       <c r="J363" s="5"/>
       <c r="K363" s="5"/>
-    </row>
-    <row r="364" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M363" s="5"/>
+    </row>
+    <row r="364" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -11691,8 +12267,9 @@
       <c r="I364" s="5"/>
       <c r="J364" s="5"/>
       <c r="K364" s="5"/>
-    </row>
-    <row r="365" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M364" s="5"/>
+    </row>
+    <row r="365" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -11702,8 +12279,9 @@
       <c r="I365" s="5"/>
       <c r="J365" s="5"/>
       <c r="K365" s="5"/>
-    </row>
-    <row r="366" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M365" s="5"/>
+    </row>
+    <row r="366" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
@@ -11713,8 +12291,9 @@
       <c r="I366" s="5"/>
       <c r="J366" s="5"/>
       <c r="K366" s="5"/>
-    </row>
-    <row r="367" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M366" s="5"/>
+    </row>
+    <row r="367" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -11724,8 +12303,9 @@
       <c r="I367" s="5"/>
       <c r="J367" s="5"/>
       <c r="K367" s="5"/>
-    </row>
-    <row r="368" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M367" s="5"/>
+    </row>
+    <row r="368" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -11735,8 +12315,9 @@
       <c r="I368" s="5"/>
       <c r="J368" s="5"/>
       <c r="K368" s="5"/>
-    </row>
-    <row r="369" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M368" s="5"/>
+    </row>
+    <row r="369" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -11746,8 +12327,9 @@
       <c r="I369" s="5"/>
       <c r="J369" s="5"/>
       <c r="K369" s="5"/>
-    </row>
-    <row r="370" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M369" s="5"/>
+    </row>
+    <row r="370" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -11757,8 +12339,9 @@
       <c r="I370" s="5"/>
       <c r="J370" s="5"/>
       <c r="K370" s="5"/>
-    </row>
-    <row r="371" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M370" s="5"/>
+    </row>
+    <row r="371" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -11768,8 +12351,9 @@
       <c r="I371" s="5"/>
       <c r="J371" s="5"/>
       <c r="K371" s="5"/>
-    </row>
-    <row r="372" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M371" s="5"/>
+    </row>
+    <row r="372" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -11779,8 +12363,9 @@
       <c r="I372" s="5"/>
       <c r="J372" s="5"/>
       <c r="K372" s="5"/>
-    </row>
-    <row r="373" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M372" s="5"/>
+    </row>
+    <row r="373" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -11790,8 +12375,9 @@
       <c r="I373" s="5"/>
       <c r="J373" s="5"/>
       <c r="K373" s="5"/>
-    </row>
-    <row r="374" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M373" s="5"/>
+    </row>
+    <row r="374" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -11801,8 +12387,9 @@
       <c r="I374" s="5"/>
       <c r="J374" s="5"/>
       <c r="K374" s="5"/>
-    </row>
-    <row r="375" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M374" s="5"/>
+    </row>
+    <row r="375" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -11812,8 +12399,9 @@
       <c r="I375" s="5"/>
       <c r="J375" s="5"/>
       <c r="K375" s="5"/>
-    </row>
-    <row r="376" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M375" s="5"/>
+    </row>
+    <row r="376" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -11823,8 +12411,9 @@
       <c r="I376" s="5"/>
       <c r="J376" s="5"/>
       <c r="K376" s="5"/>
-    </row>
-    <row r="377" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M376" s="5"/>
+    </row>
+    <row r="377" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
@@ -11834,8 +12423,9 @@
       <c r="I377" s="5"/>
       <c r="J377" s="5"/>
       <c r="K377" s="5"/>
-    </row>
-    <row r="378" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M377" s="5"/>
+    </row>
+    <row r="378" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
@@ -11845,8 +12435,9 @@
       <c r="I378" s="5"/>
       <c r="J378" s="5"/>
       <c r="K378" s="5"/>
-    </row>
-    <row r="379" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M378" s="5"/>
+    </row>
+    <row r="379" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -11856,8 +12447,9 @@
       <c r="I379" s="5"/>
       <c r="J379" s="5"/>
       <c r="K379" s="5"/>
-    </row>
-    <row r="380" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M379" s="5"/>
+    </row>
+    <row r="380" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -11867,8 +12459,9 @@
       <c r="I380" s="5"/>
       <c r="J380" s="5"/>
       <c r="K380" s="5"/>
-    </row>
-    <row r="381" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M380" s="5"/>
+    </row>
+    <row r="381" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -11878,8 +12471,9 @@
       <c r="I381" s="5"/>
       <c r="J381" s="5"/>
       <c r="K381" s="5"/>
-    </row>
-    <row r="382" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M381" s="5"/>
+    </row>
+    <row r="382" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -11889,8 +12483,9 @@
       <c r="I382" s="5"/>
       <c r="J382" s="5"/>
       <c r="K382" s="5"/>
-    </row>
-    <row r="383" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M382" s="5"/>
+    </row>
+    <row r="383" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -11900,8 +12495,9 @@
       <c r="I383" s="5"/>
       <c r="J383" s="5"/>
       <c r="K383" s="5"/>
-    </row>
-    <row r="384" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M383" s="5"/>
+    </row>
+    <row r="384" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -11911,8 +12507,9 @@
       <c r="I384" s="5"/>
       <c r="J384" s="5"/>
       <c r="K384" s="5"/>
-    </row>
-    <row r="385" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M384" s="5"/>
+    </row>
+    <row r="385" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -11922,8 +12519,9 @@
       <c r="I385" s="5"/>
       <c r="J385" s="5"/>
       <c r="K385" s="5"/>
-    </row>
-    <row r="386" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M385" s="5"/>
+    </row>
+    <row r="386" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -11933,8 +12531,9 @@
       <c r="I386" s="5"/>
       <c r="J386" s="5"/>
       <c r="K386" s="5"/>
-    </row>
-    <row r="387" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M386" s="5"/>
+    </row>
+    <row r="387" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -11944,8 +12543,9 @@
       <c r="I387" s="5"/>
       <c r="J387" s="5"/>
       <c r="K387" s="5"/>
-    </row>
-    <row r="388" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M387" s="5"/>
+    </row>
+    <row r="388" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -11955,8 +12555,9 @@
       <c r="I388" s="5"/>
       <c r="J388" s="5"/>
       <c r="K388" s="5"/>
-    </row>
-    <row r="389" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M388" s="5"/>
+    </row>
+    <row r="389" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -11966,8 +12567,9 @@
       <c r="I389" s="5"/>
       <c r="J389" s="5"/>
       <c r="K389" s="5"/>
-    </row>
-    <row r="390" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M389" s="5"/>
+    </row>
+    <row r="390" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
@@ -11977,8 +12579,9 @@
       <c r="I390" s="5"/>
       <c r="J390" s="5"/>
       <c r="K390" s="5"/>
-    </row>
-    <row r="391" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M390" s="5"/>
+    </row>
+    <row r="391" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
@@ -11988,8 +12591,9 @@
       <c r="I391" s="5"/>
       <c r="J391" s="5"/>
       <c r="K391" s="5"/>
-    </row>
-    <row r="392" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M391" s="5"/>
+    </row>
+    <row r="392" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -11999,8 +12603,9 @@
       <c r="I392" s="5"/>
       <c r="J392" s="5"/>
       <c r="K392" s="5"/>
-    </row>
-    <row r="393" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M392" s="5"/>
+    </row>
+    <row r="393" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -12010,8 +12615,9 @@
       <c r="I393" s="5"/>
       <c r="J393" s="5"/>
       <c r="K393" s="5"/>
-    </row>
-    <row r="394" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M393" s="5"/>
+    </row>
+    <row r="394" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -12021,6 +12627,7 @@
       <c r="I394" s="5"/>
       <c r="J394" s="5"/>
       <c r="K394" s="5"/>
+      <c r="M394" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0646112-5F3E-4008-84E8-2CC7AA430905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B080A019-6612-423A-8A94-F198E96E0865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FashionProto" sheetId="1" r:id="rId1"/>
@@ -7053,7 +7053,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8005,7 +8005,7 @@
         <v>201003</v>
       </c>
       <c r="K30" s="7">
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>35</v>
@@ -8040,7 +8040,7 @@
         <v>201003</v>
       </c>
       <c r="K31" s="7">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>35</v>
@@ -8104,7 +8104,7 @@
         <v>200403</v>
       </c>
       <c r="K33" s="7">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>35</v>
@@ -8139,7 +8139,7 @@
         <v>202103</v>
       </c>
       <c r="K34" s="7">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>35</v>
@@ -8203,7 +8203,7 @@
         <v>200203</v>
       </c>
       <c r="K36" s="7">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>36</v>
@@ -8238,7 +8238,7 @@
         <v>200903</v>
       </c>
       <c r="K37" s="7">
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>36</v>
@@ -8273,7 +8273,7 @@
         <v>200903</v>
       </c>
       <c r="K38" s="7">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>36</v>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B080A019-6612-423A-8A94-F198E96E0865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0DC45C-D7CB-4DF5-B796-3A0C69B50349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="94">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -432,6 +432,10 @@
   </si>
   <si>
     <t>10000177;1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -7051,9 +7055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7236,7 +7240,7 @@
         <v>202103</v>
       </c>
       <c r="K7" s="7">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>35</v>
@@ -7271,7 +7275,7 @@
         <v>201003</v>
       </c>
       <c r="K8" s="7">
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>35</v>
@@ -7306,7 +7310,7 @@
         <v>201003</v>
       </c>
       <c r="K9" s="7">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>35</v>
@@ -7370,7 +7374,7 @@
         <v>200403</v>
       </c>
       <c r="K11" s="7">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>35</v>
@@ -7405,7 +7409,7 @@
         <v>202103</v>
       </c>
       <c r="K12" s="7">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>35</v>
@@ -7469,7 +7473,7 @@
         <v>200203</v>
       </c>
       <c r="K14" s="7">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>36</v>
@@ -7504,7 +7508,7 @@
         <v>200903</v>
       </c>
       <c r="K15" s="7">
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>36</v>
@@ -7539,7 +7543,7 @@
         <v>200903</v>
       </c>
       <c r="K16" s="7">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>36</v>
@@ -7603,7 +7607,7 @@
         <v>202103</v>
       </c>
       <c r="K18" s="7">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>44</v>
@@ -7638,7 +7642,7 @@
         <v>201003</v>
       </c>
       <c r="K19" s="7">
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>42</v>
@@ -7673,7 +7677,7 @@
         <v>201003</v>
       </c>
       <c r="K20" s="7">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>42</v>
@@ -7737,7 +7741,7 @@
         <v>200403</v>
       </c>
       <c r="K22" s="7">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>35</v>
@@ -7772,7 +7776,7 @@
         <v>202103</v>
       </c>
       <c r="K23" s="7">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>35</v>
@@ -7836,7 +7840,7 @@
         <v>200203</v>
       </c>
       <c r="K25" s="7">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>36</v>
@@ -7871,7 +7875,7 @@
         <v>200903</v>
       </c>
       <c r="K26" s="7">
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>36</v>
@@ -7906,7 +7910,7 @@
         <v>200903</v>
       </c>
       <c r="K27" s="7">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>36</v>
@@ -7934,8 +7938,8 @@
       <c r="H28" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="7">
-        <v>0</v>
+      <c r="I28" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -7970,7 +7974,7 @@
         <v>202103</v>
       </c>
       <c r="K29" s="7">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>35</v>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BD162E-CD93-48E2-B5CF-6C57650132CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C995EA3-9A55-44B8-9B33-81F16DFD8DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -41,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,6 +60,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -66,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -82,6 +86,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -90,6 +95,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -102,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -380,10 +386,16 @@
     <t>zhanshi_101_shangyi@zhanshi_101_xiayi@zhanshi_101_xiezi</t>
   </si>
   <si>
-    <t>zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi</t>
-  </si>
-  <si>
-    <t>zhanshi_2_shangyi@zhanshi_2_xiayi@zhanshi_2_xiezi</t>
+    <t>zhanshi_2_pifeng@zhanshi_2_shangyi@zhanshi_2_xiayi@zhanshi_2_xiezi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000160;30</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -401,6 +413,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -408,12 +421,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -421,6 +436,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -428,6 +444,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -435,6 +452,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -447,6 +465,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -454,11 +473,13 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6982,9 +7003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V42" sqref="V42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7761,7 +7782,7 @@
         <v>84</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="J25" s="7">
         <v>200203</v>
@@ -8128,7 +8149,7 @@
         <v>91</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="J36" s="7">
         <v>200203</v>
@@ -8160,7 +8181,7 @@
         <v>59</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>61</v>
@@ -8195,7 +8216,7 @@
         <v>63</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>65</v>
@@ -8228,9 +8249,9 @@
     <hyperlink ref="H25" r:id="rId10" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="H10" r:id="rId11" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="H13" r:id="rId12" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H37" r:id="rId13" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H37" r:id="rId13" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="H34" r:id="rId14" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H38" r:id="rId15" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H38" r:id="rId15" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_2_shangyi@zhanshi_2_xiayi@zhanshi_2_xiezi" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="H33" r:id="rId16" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="H36" r:id="rId17" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="H32" r:id="rId18" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000011000000}"/>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C995EA3-9A55-44B8-9B33-81F16DFD8DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4A33BC-50FB-4311-82E3-589977A07A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FashionProto" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="114">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -395,6 +395,82 @@
   </si>
   <si>
     <t>10000160;30</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法制服发饰</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashi_3_fashi@fashi_3_fashi2@fashi_3_toufa</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashi_3_lian@fashi_3_meimao@fashi_3_yanjing</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法之睛</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法制服之衣</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashi_3_shangyi@fashi_3_xiayi@fashi_3_xiezi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_3_toufa</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_3_meimao@zhanshi_3_yanjing@zhanshi_3_lian</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanshi_3_shangyi@zhanshi_3_xiayi@zhanshi_3_xiezi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑金战斗之服</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑金之睛</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑金战斗之发</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_shangyi@Hero_xiashen@Hero_xiezi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000160;75</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000160;120</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000160;180</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成提升4%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免提升4%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率提升3%</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -7001,11 +7077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:M38"/>
+  <dimension ref="C1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7269,36 +7345,42 @@
     </row>
     <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="5">
-        <v>10002000</v>
+        <v>10001040</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="6">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2001</v>
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1001</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="J10" s="7">
+        <v>201003</v>
+      </c>
+      <c r="K10" s="7">
+        <v>400</v>
+      </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5">
-        <v>10002010</v>
+        <v>10002000</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -7310,30 +7392,24 @@
         <v>2001</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="7">
-        <v>200403</v>
-      </c>
-      <c r="K11" s="7">
-        <v>200</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5">
-        <v>10002020</v>
+        <v>10002010</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -7345,16 +7421,16 @@
         <v>2001</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J12" s="7">
-        <v>202103</v>
+        <v>200403</v>
       </c>
       <c r="K12" s="7">
         <v>200</v>
@@ -7363,76 +7439,82 @@
         <v>30</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="5">
-        <v>10003000</v>
+        <v>10002020</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="6">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="J13" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K13" s="7">
+        <v>200</v>
+      </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5">
-        <v>10003010</v>
+        <v>10002030</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="6">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="J14" s="7">
-        <v>200203</v>
+        <v>202103</v>
       </c>
       <c r="K14" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5">
-        <v>10003020</v>
+        <v>10003000</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -7444,30 +7526,24 @@
         <v>3001</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="7">
-        <v>200903</v>
-      </c>
-      <c r="K15" s="7">
-        <v>300</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="5">
-        <v>10003030</v>
+        <v>10003010</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
@@ -7479,129 +7555,135 @@
         <v>3001</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J16" s="7">
-        <v>200903</v>
+        <v>200203</v>
       </c>
       <c r="K16" s="7">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5">
-        <v>20001000</v>
+        <v>10003020</v>
       </c>
       <c r="D17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1001</v>
+        <v>3</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3001</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="J17" s="7">
+        <v>200903</v>
+      </c>
+      <c r="K17" s="7">
+        <v>300</v>
+      </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5">
-        <v>20001010</v>
+        <v>10003030</v>
       </c>
       <c r="D18" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1001</v>
+        <v>3</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3001</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="J18" s="7">
-        <v>202103</v>
+        <v>200903</v>
       </c>
       <c r="K18" s="7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="5">
-        <v>20001020</v>
+        <v>10003040</v>
       </c>
       <c r="D19" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1001</v>
+        <v>3</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3001</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="J19" s="7">
-        <v>201003</v>
+        <v>200903</v>
       </c>
       <c r="K19" s="7">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="5">
-        <v>20001030</v>
+        <v>20001000</v>
       </c>
       <c r="D20" s="5">
         <v>2</v>
@@ -7613,654 +7695,1450 @@
         <v>1001</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="7">
-        <v>201003</v>
-      </c>
-      <c r="K20" s="7">
-        <v>500</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5">
-        <v>20002000</v>
+        <v>20001010</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="E21" s="6">
-        <v>2</v>
-      </c>
-      <c r="F21" s="6">
-        <v>2001</v>
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1001</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="J21" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K21" s="7">
+        <v>100</v>
+      </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="5">
-        <v>20002010</v>
+        <v>20001020</v>
       </c>
       <c r="D22" s="5">
         <v>2</v>
       </c>
       <c r="E22" s="6">
-        <v>2</v>
-      </c>
-      <c r="F22" s="6">
-        <v>2001</v>
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1001</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J22" s="7">
-        <v>200403</v>
+        <v>201003</v>
       </c>
       <c r="K22" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5">
-        <v>20002020</v>
+        <v>20001030</v>
       </c>
       <c r="D23" s="5">
         <v>2</v>
       </c>
       <c r="E23" s="6">
-        <v>2</v>
-      </c>
-      <c r="F23" s="6">
-        <v>2001</v>
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1001</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J23" s="7">
-        <v>202103</v>
+        <v>201003</v>
       </c>
       <c r="K23" s="7">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="5">
-        <v>20003000</v>
+        <v>20001040</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" s="6">
-        <v>3</v>
-      </c>
-      <c r="F24" s="6">
-        <v>3001</v>
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1001</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="J24" s="7">
+        <v>201003</v>
+      </c>
+      <c r="K24" s="7">
+        <v>400</v>
+      </c>
       <c r="L24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M24" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="25" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="5">
-        <v>20003010</v>
+        <v>20002000</v>
       </c>
       <c r="D25" s="5">
         <v>2</v>
       </c>
       <c r="E25" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="6">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="7">
-        <v>200203</v>
-      </c>
-      <c r="K25" s="7">
-        <v>200</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="5">
-        <v>20003020</v>
+        <v>20002010</v>
       </c>
       <c r="D26" s="5">
         <v>2</v>
       </c>
       <c r="E26" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="6">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J26" s="7">
-        <v>200903</v>
+        <v>200403</v>
       </c>
       <c r="K26" s="7">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="5">
-        <v>20003030</v>
+        <v>20002020</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
       </c>
       <c r="E27" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="6">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J27" s="7">
-        <v>200903</v>
+        <v>202103</v>
       </c>
       <c r="K27" s="7">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="5">
-        <v>30001000</v>
+        <v>20002030</v>
       </c>
       <c r="D28" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1001</v>
+        <v>2</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2001</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="J28" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K28" s="7">
+        <v>300</v>
+      </c>
       <c r="L28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M28" s="7"/>
+      <c r="M28" s="7" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="29" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="5">
-        <v>30001010</v>
+        <v>20003000</v>
       </c>
       <c r="D29" s="5">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6">
         <v>3</v>
       </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1001</v>
+      <c r="F29" s="6">
+        <v>3001</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="7">
-        <v>202103</v>
-      </c>
-      <c r="K29" s="7">
-        <v>100</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="5">
-        <v>30001020</v>
+        <v>20003010</v>
       </c>
       <c r="D30" s="5">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6">
         <v>3</v>
       </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="7">
-        <v>1001</v>
+      <c r="F30" s="6">
+        <v>3001</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="J30" s="7">
-        <v>201003</v>
+        <v>200203</v>
       </c>
       <c r="K30" s="7">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="5">
-        <v>30001030</v>
+        <v>20003020</v>
       </c>
       <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6">
         <v>3</v>
       </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="7">
-        <v>1001</v>
+      <c r="F31" s="6">
+        <v>3001</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="J31" s="7">
-        <v>201003</v>
+        <v>200903</v>
       </c>
       <c r="K31" s="7">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="5">
-        <v>30002000</v>
+        <v>20003030</v>
       </c>
       <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6">
         <v>3</v>
       </c>
-      <c r="E32" s="6">
-        <v>2</v>
-      </c>
       <c r="F32" s="6">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="J32" s="7">
+        <v>200903</v>
+      </c>
+      <c r="K32" s="7">
+        <v>500</v>
+      </c>
       <c r="L32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="33" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="5">
-        <v>30002010</v>
+        <v>20003040</v>
       </c>
       <c r="D33" s="5">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6">
         <v>3</v>
       </c>
-      <c r="E33" s="6">
-        <v>2</v>
-      </c>
       <c r="F33" s="6">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="J33" s="7">
-        <v>200403</v>
+        <v>200903</v>
       </c>
       <c r="K33" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="5">
-        <v>30002020</v>
+        <v>30001000</v>
       </c>
       <c r="D34" s="5">
         <v>3</v>
       </c>
       <c r="E34" s="6">
-        <v>2</v>
-      </c>
-      <c r="F34" s="6">
-        <v>2001</v>
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1001</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J34" s="7">
-        <v>202103</v>
-      </c>
-      <c r="K34" s="7">
-        <v>200</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M34" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M34" s="7"/>
     </row>
     <row r="35" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="5">
-        <v>30003000</v>
+        <v>30001010</v>
       </c>
       <c r="D35" s="5">
         <v>3</v>
       </c>
       <c r="E35" s="6">
-        <v>3</v>
-      </c>
-      <c r="F35" s="6">
-        <v>3001</v>
+        <v>1</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1001</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="J35" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K35" s="7">
+        <v>100</v>
+      </c>
       <c r="L35" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M35" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="5">
-        <v>30003010</v>
+        <v>30001020</v>
       </c>
       <c r="D36" s="5">
         <v>3</v>
       </c>
       <c r="E36" s="6">
-        <v>3</v>
-      </c>
-      <c r="F36" s="6">
-        <v>3001</v>
+        <v>1</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1001</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="J36" s="7">
-        <v>200203</v>
+        <v>201003</v>
       </c>
       <c r="K36" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="5">
-        <v>30003020</v>
+        <v>30001030</v>
       </c>
       <c r="D37" s="5">
         <v>3</v>
       </c>
       <c r="E37" s="6">
-        <v>3</v>
-      </c>
-      <c r="F37" s="6">
-        <v>3001</v>
+        <v>1</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1001</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="J37" s="7">
-        <v>200903</v>
+        <v>201003</v>
       </c>
       <c r="K37" s="7">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="5">
-        <v>30003030</v>
+        <v>30001040</v>
       </c>
       <c r="D38" s="5">
         <v>3</v>
       </c>
       <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1001</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" s="7">
+        <v>201003</v>
+      </c>
+      <c r="K38" s="7">
+        <v>400</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="5">
+        <v>30002000</v>
+      </c>
+      <c r="D39" s="5">
         <v>3</v>
       </c>
-      <c r="F38" s="6">
+      <c r="E39" s="6">
+        <v>2</v>
+      </c>
+      <c r="F39" s="6">
+        <v>2001</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="5">
+        <v>30002010</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3</v>
+      </c>
+      <c r="E40" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" s="6">
+        <v>2001</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="7">
+        <v>200403</v>
+      </c>
+      <c r="K40" s="7">
+        <v>200</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="5">
+        <v>30002020</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+      <c r="E41" s="6">
+        <v>2</v>
+      </c>
+      <c r="F41" s="6">
+        <v>2001</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J41" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K41" s="7">
+        <v>200</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="5">
+        <v>30002030</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2</v>
+      </c>
+      <c r="F42" s="6">
+        <v>2001</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J42" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K42" s="7">
+        <v>200</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="5">
+        <v>30003000</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3</v>
+      </c>
+      <c r="E43" s="6">
+        <v>3</v>
+      </c>
+      <c r="F43" s="6">
         <v>3001</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="5">
+        <v>30003010</v>
+      </c>
+      <c r="D44" s="5">
+        <v>3</v>
+      </c>
+      <c r="E44" s="6">
+        <v>3</v>
+      </c>
+      <c r="F44" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J44" s="7">
+        <v>200203</v>
+      </c>
+      <c r="K44" s="7">
+        <v>200</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="5">
+        <v>30003020</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3</v>
+      </c>
+      <c r="E45" s="6">
+        <v>3</v>
+      </c>
+      <c r="F45" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="7">
+        <v>200903</v>
+      </c>
+      <c r="K45" s="7">
+        <v>300</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="5">
+        <v>30003030</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3</v>
+      </c>
+      <c r="E46" s="6">
+        <v>3</v>
+      </c>
+      <c r="F46" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I46" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J46" s="7">
         <v>200903</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K46" s="7">
         <v>500</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M46" s="7" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="5">
+        <v>30003040</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3</v>
+      </c>
+      <c r="E47" s="6">
+        <v>3</v>
+      </c>
+      <c r="F47" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" s="7">
+        <v>200903</v>
+      </c>
+      <c r="K47" s="7">
+        <v>400</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="5">
+        <v>40001000</v>
+      </c>
+      <c r="D48" s="5">
+        <v>4</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1001</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="5">
+        <v>40001010</v>
+      </c>
+      <c r="D49" s="5">
+        <v>4</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1001</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K49" s="7">
+        <v>100</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="5">
+        <v>40001020</v>
+      </c>
+      <c r="D50" s="5">
+        <v>4</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1001</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" s="7">
+        <v>201003</v>
+      </c>
+      <c r="K50" s="7">
+        <v>300</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="5">
+        <v>40001030</v>
+      </c>
+      <c r="D51" s="5">
+        <v>4</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1001</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" s="7">
+        <v>201003</v>
+      </c>
+      <c r="K51" s="7">
+        <v>500</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="5">
+        <v>40001040</v>
+      </c>
+      <c r="D52" s="5">
+        <v>4</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1001</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J52" s="7">
+        <v>201003</v>
+      </c>
+      <c r="K52" s="7">
+        <v>400</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="5">
+        <v>40004000</v>
+      </c>
+      <c r="D53" s="5">
+        <v>4</v>
+      </c>
+      <c r="E53" s="6">
+        <v>2</v>
+      </c>
+      <c r="F53" s="6">
+        <v>2001</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="5">
+        <v>40002010</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4</v>
+      </c>
+      <c r="E54" s="6">
+        <v>2</v>
+      </c>
+      <c r="F54" s="6">
+        <v>2001</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J54" s="7">
+        <v>200403</v>
+      </c>
+      <c r="K54" s="7">
+        <v>200</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="5">
+        <v>40002020</v>
+      </c>
+      <c r="D55" s="5">
+        <v>4</v>
+      </c>
+      <c r="E55" s="6">
+        <v>2</v>
+      </c>
+      <c r="F55" s="6">
+        <v>2001</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J55" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K55" s="7">
+        <v>200</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="5">
+        <v>40002030</v>
+      </c>
+      <c r="D56" s="5">
+        <v>4</v>
+      </c>
+      <c r="E56" s="6">
+        <v>2</v>
+      </c>
+      <c r="F56" s="6">
+        <v>2001</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J56" s="7">
+        <v>202103</v>
+      </c>
+      <c r="K56" s="7">
+        <v>300</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="5">
+        <v>40003000</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4</v>
+      </c>
+      <c r="E57" s="6">
+        <v>3</v>
+      </c>
+      <c r="F57" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M57" s="7"/>
+    </row>
+    <row r="58" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="5">
+        <v>40003010</v>
+      </c>
+      <c r="D58" s="5">
+        <v>4</v>
+      </c>
+      <c r="E58" s="6">
+        <v>3</v>
+      </c>
+      <c r="F58" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J58" s="7">
+        <v>200203</v>
+      </c>
+      <c r="K58" s="7">
+        <v>200</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="5">
+        <v>40003020</v>
+      </c>
+      <c r="D59" s="5">
+        <v>4</v>
+      </c>
+      <c r="E59" s="6">
+        <v>3</v>
+      </c>
+      <c r="F59" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J59" s="7">
+        <v>200903</v>
+      </c>
+      <c r="K59" s="7">
+        <v>300</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="5">
+        <v>40003030</v>
+      </c>
+      <c r="D60" s="5">
+        <v>4</v>
+      </c>
+      <c r="E60" s="6">
+        <v>3</v>
+      </c>
+      <c r="F60" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J60" s="7">
+        <v>200903</v>
+      </c>
+      <c r="K60" s="7">
+        <v>500</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="5">
+        <v>40003040</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4</v>
+      </c>
+      <c r="E61" s="6">
+        <v>3</v>
+      </c>
+      <c r="F61" s="6">
+        <v>3001</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J61" s="7">
+        <v>200903</v>
+      </c>
+      <c r="K61" s="7">
+        <v>400</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H15" r:id="rId1" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H12" r:id="rId2" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H16" r:id="rId3" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H11" r:id="rId4" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H26" r:id="rId5" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H22" r:id="rId6" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H27" r:id="rId7" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H23" r:id="rId8" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H14" r:id="rId9" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H25" r:id="rId10" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H10" r:id="rId11" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H13" r:id="rId12" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H37" r:id="rId13" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H34" r:id="rId14" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H38" r:id="rId15" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_2_shangyi@zhanshi_2_xiayi@zhanshi_2_xiezi" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H33" r:id="rId16" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H36" r:id="rId17" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H32" r:id="rId18" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H35" r:id="rId19" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H21" r:id="rId20" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H24" r:id="rId21" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H17" r:id="rId1" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H13" r:id="rId2" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H18" r:id="rId3" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H12" r:id="rId4" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H31" r:id="rId5" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H26" r:id="rId6" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H32" r:id="rId7" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H27" r:id="rId8" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H16" r:id="rId9" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H30" r:id="rId10" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H11" r:id="rId11" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H15" r:id="rId12" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H45" r:id="rId13" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H41" r:id="rId14" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H46" r:id="rId15" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_2_shangyi@zhanshi_2_xiayi@zhanshi_2_xiezi" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H40" r:id="rId16" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H44" r:id="rId17" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H39" r:id="rId18" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H43" r:id="rId19" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H25" r:id="rId20" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H29" r:id="rId21" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H28" r:id="rId22" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="fashi_2_lian@fashi_2_meimao@fashi_2_yanjing" xr:uid="{1B24B811-BDD3-4332-9D9A-FF58A152C7A7}"/>
+    <hyperlink ref="H33" r:id="rId23" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="fashi_2_shangyi@fashi_2_xiayi@fashi_2_xiezi" xr:uid="{04792457-C2C3-4D44-AA8D-E30149D17C89}"/>
+    <hyperlink ref="H19" r:id="rId24" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_2_pifeng@zhanshi_2_shangyi@zhanshi_2_xiayi@zhanshi_2_xiezi" xr:uid="{F466E03E-42A4-466A-AC1E-A4172081A3EF}"/>
+    <hyperlink ref="H14" r:id="rId25" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_2_meimao@zhanshi_2_yanjing@zhanshi_2_lian" xr:uid="{8D34E12A-C32A-457B-951B-E2F21CD4EF02}"/>
+    <hyperlink ref="H42" r:id="rId26" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="zhanshi_2_meimao@zhanshi_2_yanjing@zhanshi_2_lian" xr:uid="{0ACBABF6-946B-466A-9770-538241660925}"/>
+    <hyperlink ref="H47" r:id="rId27" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="zhanshi_2_pifeng@zhanshi_2_shangyi@zhanshi_2_xiayi@zhanshi_2_xiezi" xr:uid="{4F45886E-0EFF-4B98-9370-1DF68E6F4DAB}"/>
+    <hyperlink ref="H59" r:id="rId28" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{ECF9C4B3-23FF-4414-B8AF-A7C49AF18A24}"/>
+    <hyperlink ref="H54" r:id="rId29" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{E0747A8C-C932-4262-B115-D865D0440A77}"/>
+    <hyperlink ref="H60" r:id="rId30" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{838A05A8-FED1-48A0-9CE5-0B8492229D7C}"/>
+    <hyperlink ref="H55" r:id="rId31" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{A1073D3E-DCAD-4F28-8D86-50476586CE55}"/>
+    <hyperlink ref="H58" r:id="rId32" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" xr:uid="{6003702D-640E-458D-A55F-4A79C43D9F8B}"/>
+    <hyperlink ref="H53" r:id="rId33" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" xr:uid="{619DC50E-390B-4CE2-90B0-AAA103A6E2EC}"/>
+    <hyperlink ref="H57" r:id="rId34" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="Hero_shangyi@Hero_xiashen@Hero_xiezi@Hero_pifu1@@Hero_pifu2" xr:uid="{246269C2-7A50-41F5-8A27-5C5ACC5EE1D7}"/>
+    <hyperlink ref="H56" r:id="rId35" tooltip="mailto:zhanshi_1_meimao@zhanshi_1_yanjing@zhanshi_1_lian" display="fashi_2_lian@fashi_2_meimao@fashi_2_yanjing" xr:uid="{5E88E76B-33FF-4E54-9493-B4A3B34AC447}"/>
+    <hyperlink ref="H61" r:id="rId36" tooltip="mailto:zhanshi_1_pifeng@zhanshi_1_shangyi@zhanshi_1_xiayi@zhanshi_1_xiezi" display="fashi_2_shangyi@fashi_2_xiayi@fashi_2_xiezi" xr:uid="{5D5844AC-22CB-49AF-8038-DF0E026CA1DF}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId22"/>
+  <legacyDrawing r:id="rId37"/>
 </worksheet>
 </file>
--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4A33BC-50FB-4311-82E3-589977A07A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A4997-4D74-4A86-BF50-4DE3AF54A3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7079,9 +7079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8796,7 +8796,7 @@
     </row>
     <row r="53" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="5">
-        <v>40004000</v>
+        <v>40002000</v>
       </c>
       <c r="D53" s="5">
         <v>4</v>

--- a/Excel/FashionConfig.xlsx
+++ b/Excel/FashionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A4997-4D74-4A86-BF50-4DE3AF54A3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BCB6FA-74F6-44D7-9744-58FF92CA4708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FashionProto" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="115">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -467,6 +467,10 @@
   </si>
   <si>
     <t>伤害减免提升4%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率提升3%</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -7079,9 +7083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8447,13 +8451,13 @@
         <v>202103</v>
       </c>
       <c r="K42" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
